--- a/dist/document/dest/2020/10/doctors/88.xlsx
+++ b/dist/document/dest/2020/10/doctors/88.xlsx
@@ -404,9 +404,6 @@
       <c r="B2" s="1">
         <v>2030</v>
       </c>
-      <c r="C2" s="1">
-        <v>16747500</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
@@ -415,9 +412,6 @@
       <c r="B3" s="1">
         <v>40</v>
       </c>
-      <c r="C3" s="1">
-        <v>92000</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -426,9 +420,6 @@
       <c r="B4" s="1">
         <v>310</v>
       </c>
-      <c r="C4" s="1">
-        <v>1875500</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
@@ -437,9 +428,6 @@
       <c r="B5" s="1">
         <v>480</v>
       </c>
-      <c r="C5" s="1">
-        <v>6072000</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -448,9 +436,6 @@
       <c r="B6" s="1">
         <v>2060</v>
       </c>
-      <c r="C6" s="1">
-        <v>13369400</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
@@ -459,9 +444,6 @@
       <c r="B7" s="1">
         <v>9603</v>
       </c>
-      <c r="C7" s="1">
-        <v>55217250</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
@@ -470,9 +452,6 @@
       <c r="B8" s="1">
         <v>105</v>
       </c>
-      <c r="C8" s="1">
-        <v>866250</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -481,9 +460,6 @@
       <c r="B9" s="1">
         <v>3137</v>
       </c>
-      <c r="C9" s="1">
-        <v>40718260</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -492,9 +468,6 @@
       <c r="B10" s="1">
         <v>1690</v>
       </c>
-      <c r="C10" s="1">
-        <v>12641200</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
@@ -503,9 +476,6 @@
       <c r="B11" s="1">
         <v>13537</v>
       </c>
-      <c r="C11" s="1">
-        <v>104234900</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -514,9 +484,6 @@
       <c r="B12" s="1">
         <v>19758</v>
       </c>
-      <c r="C12" s="1">
-        <v>104519820</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -525,9 +492,6 @@
       <c r="B13" s="1">
         <v>1880</v>
       </c>
-      <c r="C13" s="1">
-        <v>14476000</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
@@ -536,9 +500,6 @@
       <c r="B14" s="1">
         <v>1749</v>
       </c>
-      <c r="C14" s="1">
-        <v>5229510</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -547,9 +508,6 @@
       <c r="B15" s="1">
         <v>1815</v>
       </c>
-      <c r="C15" s="1">
-        <v>8349000</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -558,9 +516,6 @@
       <c r="B16" s="1">
         <v>1875</v>
       </c>
-      <c r="C16" s="1">
-        <v>6140625</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
@@ -569,9 +524,6 @@
       <c r="B17" s="1">
         <v>2323</v>
       </c>
-      <c r="C17" s="1">
-        <v>16098390</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
@@ -580,9 +532,6 @@
       <c r="B18" s="1">
         <v>4</v>
       </c>
-      <c r="C18" s="1">
-        <v>566000</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -591,9 +540,6 @@
       <c r="B19" s="1">
         <v>1</v>
       </c>
-      <c r="C19" s="1">
-        <v>37700</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -602,9 +548,6 @@
       <c r="B20" s="1">
         <v>4473</v>
       </c>
-      <c r="C20" s="1">
-        <v>20307420</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
@@ -613,9 +556,6 @@
       <c r="B21" s="1">
         <v>170</v>
       </c>
-      <c r="C21" s="1">
-        <v>9032100</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
@@ -624,9 +564,6 @@
       <c r="B22" s="1">
         <v>1540</v>
       </c>
-      <c r="C22" s="1">
-        <v>3364900</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
@@ -635,9 +572,6 @@
       <c r="B23" s="1">
         <v>5225</v>
       </c>
-      <c r="C23" s="1">
-        <v>73280625</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
@@ -646,9 +580,6 @@
       <c r="B24" s="1">
         <v>964</v>
       </c>
-      <c r="C24" s="1">
-        <v>6945620</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
@@ -657,9 +588,6 @@
       <c r="B25" s="1">
         <v>420</v>
       </c>
-      <c r="C25" s="1">
-        <v>3465000</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
@@ -668,9 +596,6 @@
       <c r="B26" s="1">
         <v>150</v>
       </c>
-      <c r="C26" s="1">
-        <v>862500</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
@@ -679,9 +604,6 @@
       <c r="B27" s="1">
         <v>355</v>
       </c>
-      <c r="C27" s="1">
-        <v>6052750</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
@@ -690,9 +612,6 @@
       <c r="B28" s="1">
         <v>681</v>
       </c>
-      <c r="C28" s="1">
-        <v>6741900</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -701,9 +620,6 @@
       <c r="B29" s="1">
         <v>3332</v>
       </c>
-      <c r="C29" s="1">
-        <v>11495400</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -712,9 +628,6 @@
       <c r="B30" s="1">
         <v>2440</v>
       </c>
-      <c r="C30" s="1">
-        <v>26303200</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -723,9 +636,6 @@
       <c r="B31" s="1">
         <v>180</v>
       </c>
-      <c r="C31" s="1">
-        <v>3108600</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -734,9 +644,6 @@
       <c r="B32" s="1">
         <v>85</v>
       </c>
-      <c r="C32" s="1">
-        <v>307700</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -745,9 +652,6 @@
       <c r="B33" s="1">
         <v>39</v>
       </c>
-      <c r="C33" s="1">
-        <v>134550</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -756,9 +660,6 @@
       <c r="B34" s="1">
         <v>590</v>
       </c>
-      <c r="C34" s="1">
-        <v>8177400</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -767,9 +668,6 @@
       <c r="B35" s="1">
         <v>90</v>
       </c>
-      <c r="C35" s="1">
-        <v>324900</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -778,9 +676,6 @@
       <c r="B36" s="1">
         <v>300</v>
       </c>
-      <c r="C36" s="1">
-        <v>1974000</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -789,9 +684,6 @@
       <c r="B37" s="1">
         <v>2005</v>
       </c>
-      <c r="C37" s="1">
-        <v>13122725</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -800,9 +692,6 @@
       <c r="B38" s="1">
         <v>198</v>
       </c>
-      <c r="C38" s="1">
-        <v>48510</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -811,9 +700,6 @@
       <c r="B39" s="1">
         <v>1685</v>
       </c>
-      <c r="C39" s="1">
-        <v>11121000</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -822,9 +708,6 @@
       <c r="B40" s="1">
         <v>1063</v>
       </c>
-      <c r="C40" s="1">
-        <v>6898870</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -833,9 +716,6 @@
       <c r="B41" s="1">
         <v>15</v>
       </c>
-      <c r="C41" s="1">
-        <v>4320000</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -844,9 +724,6 @@
       <c r="B42" s="1">
         <v>740</v>
       </c>
-      <c r="C42" s="1">
-        <v>11396000</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -855,9 +732,6 @@
       <c r="B43" s="1">
         <v>200</v>
       </c>
-      <c r="C43" s="1">
-        <v>2310000</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -866,9 +740,6 @@
       <c r="B44" s="1">
         <v>120</v>
       </c>
-      <c r="C44" s="1">
-        <v>358800</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -877,9 +748,6 @@
       <c r="B45" s="1">
         <v>375</v>
       </c>
-      <c r="C45" s="1">
-        <v>5981250</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -888,9 +756,6 @@
       <c r="B46" s="1">
         <v>725</v>
       </c>
-      <c r="C46" s="1">
-        <v>11165000</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -899,9 +764,6 @@
       <c r="B47" s="1">
         <v>210</v>
       </c>
-      <c r="C47" s="1">
-        <v>1086750</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -910,9 +772,6 @@
       <c r="B48" s="1">
         <v>60</v>
       </c>
-      <c r="C48" s="1">
-        <v>69000</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -921,9 +780,6 @@
       <c r="B49" s="1">
         <v>4917</v>
       </c>
-      <c r="C49" s="1">
-        <v>14701830</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -932,9 +788,6 @@
       <c r="B50" s="1">
         <v>180</v>
       </c>
-      <c r="C50" s="1">
-        <v>882000</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -943,9 +796,6 @@
       <c r="B51" s="1">
         <v>42</v>
       </c>
-      <c r="C51" s="1">
-        <v>2646000</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -954,9 +804,6 @@
       <c r="B52" s="1">
         <v>425</v>
       </c>
-      <c r="C52" s="1">
-        <v>1466250</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -965,9 +812,6 @@
       <c r="B53" s="1">
         <v>880</v>
       </c>
-      <c r="C53" s="1">
-        <v>7260000</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -976,9 +820,6 @@
       <c r="B54" s="1">
         <v>4889</v>
       </c>
-      <c r="C54" s="1">
-        <v>12369170</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -987,9 +828,6 @@
       <c r="B55" s="1">
         <v>2330</v>
       </c>
-      <c r="C55" s="1">
-        <v>19991400</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -998,9 +836,6 @@
       <c r="B56" s="1">
         <v>25</v>
       </c>
-      <c r="C56" s="1">
-        <v>217250</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -1009,9 +844,6 @@
       <c r="B57" s="1">
         <v>4510</v>
       </c>
-      <c r="C57" s="1">
-        <v>18152750</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -1020,9 +852,6 @@
       <c r="B58" s="1">
         <v>380</v>
       </c>
-      <c r="C58" s="1">
-        <v>1048800</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -1031,9 +860,6 @@
       <c r="B59" s="1">
         <v>615</v>
       </c>
-      <c r="C59" s="1">
-        <v>2121750</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -1042,9 +868,6 @@
       <c r="B60" s="1">
         <v>30</v>
       </c>
-      <c r="C60" s="1">
-        <v>46200</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -1053,9 +876,6 @@
       <c r="B61" s="1">
         <v>559</v>
       </c>
-      <c r="C61" s="1">
-        <v>1380730</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -1064,9 +884,6 @@
       <c r="B62" s="1">
         <v>155</v>
       </c>
-      <c r="C62" s="1">
-        <v>903650</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -1075,9 +892,6 @@
       <c r="B63" s="1">
         <v>296</v>
       </c>
-      <c r="C63" s="1">
-        <v>5209600</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -1086,9 +900,6 @@
       <c r="B64" s="1">
         <v>480</v>
       </c>
-      <c r="C64" s="1">
-        <v>5616000</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -1097,9 +908,6 @@
       <c r="B65" s="1">
         <v>15</v>
       </c>
-      <c r="C65" s="1">
-        <v>436500</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -1108,9 +916,6 @@
       <c r="B66" s="1">
         <v>3040</v>
       </c>
-      <c r="C66" s="1">
-        <v>43472000</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -1119,9 +924,6 @@
       <c r="B67" s="1">
         <v>1310</v>
       </c>
-      <c r="C67" s="1">
-        <v>7381850</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -1130,9 +932,6 @@
       <c r="B68" s="1">
         <v>28</v>
       </c>
-      <c r="C68" s="1">
-        <v>8288000</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -1141,9 +940,6 @@
       <c r="B69" s="1">
         <v>540</v>
       </c>
-      <c r="C69" s="1">
-        <v>4158000</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -1152,9 +948,6 @@
       <c r="B70" s="1">
         <v>605</v>
       </c>
-      <c r="C70" s="1">
-        <v>4192650</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -1163,9 +956,6 @@
       <c r="B71" s="1">
         <v>2130</v>
       </c>
-      <c r="C71" s="1">
-        <v>12247500</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -1174,9 +964,6 @@
       <c r="B72" s="1">
         <v>1695</v>
       </c>
-      <c r="C72" s="1">
-        <v>31696500</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -1185,9 +972,6 @@
       <c r="B73" s="1">
         <v>950</v>
       </c>
-      <c r="C73" s="1">
-        <v>5538500</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -1196,9 +980,6 @@
       <c r="B74" s="1">
         <v>74</v>
       </c>
-      <c r="C74" s="1">
-        <v>1196580</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
@@ -1207,9 +988,6 @@
       <c r="B75" s="1">
         <v>365</v>
       </c>
-      <c r="C75" s="1">
-        <v>5621000</v>
-      </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
@@ -1218,9 +996,6 @@
       <c r="B76" s="1">
         <v>240</v>
       </c>
-      <c r="C76" s="1">
-        <v>717600</v>
-      </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
@@ -1229,9 +1004,6 @@
       <c r="B77" s="1">
         <v>10</v>
       </c>
-      <c r="C77" s="1">
-        <v>66000</v>
-      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -1240,9 +1012,6 @@
       <c r="B78" s="1">
         <v>930</v>
       </c>
-      <c r="C78" s="1">
-        <v>6649500</v>
-      </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
@@ -1251,9 +1020,6 @@
       <c r="B79" s="1">
         <v>1320</v>
       </c>
-      <c r="C79" s="1">
-        <v>16698000</v>
-      </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
@@ -1262,9 +1028,6 @@
       <c r="B80" s="1">
         <v>30</v>
       </c>
-      <c r="C80" s="1">
-        <v>730200</v>
-      </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
@@ -1273,9 +1036,6 @@
       <c r="B81" s="1">
         <v>96</v>
       </c>
-      <c r="C81" s="1">
-        <v>14380800</v>
-      </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
@@ -1284,9 +1044,6 @@
       <c r="B82" s="1">
         <v>1820</v>
       </c>
-      <c r="C82" s="1">
-        <v>14014000</v>
-      </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
@@ -1295,9 +1052,6 @@
       <c r="B83" s="1">
         <v>7693</v>
       </c>
-      <c r="C83" s="1">
-        <v>21232680</v>
-      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -1306,9 +1060,6 @@
       <c r="B84" s="1">
         <v>1945</v>
       </c>
-      <c r="C84" s="1">
-        <v>4142850</v>
-      </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
@@ -1317,9 +1068,6 @@
       <c r="B85" s="1">
         <v>60</v>
       </c>
-      <c r="C85" s="1">
-        <v>241500</v>
-      </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
@@ -1328,9 +1076,6 @@
       <c r="B86" s="1">
         <v>280</v>
       </c>
-      <c r="C86" s="1">
-        <v>1878800</v>
-      </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
@@ -1339,9 +1084,6 @@
       <c r="B87" s="1">
         <v>255</v>
       </c>
-      <c r="C87" s="1">
-        <v>1026375</v>
-      </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
@@ -1350,9 +1092,6 @@
       <c r="B88" s="1">
         <v>3360</v>
       </c>
-      <c r="C88" s="1">
-        <v>42504000</v>
-      </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
@@ -1361,9 +1100,6 @@
       <c r="B89" s="1">
         <v>90</v>
       </c>
-      <c r="C89" s="1">
-        <v>594000</v>
-      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -1372,9 +1108,6 @@
       <c r="B90" s="1">
         <v>2140</v>
       </c>
-      <c r="C90" s="1">
-        <v>9844000</v>
-      </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
@@ -1383,9 +1116,6 @@
       <c r="B91" s="1">
         <v>710</v>
       </c>
-      <c r="C91" s="1">
-        <v>1753700</v>
-      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -1394,9 +1124,6 @@
       <c r="B92" s="1">
         <v>2</v>
       </c>
-      <c r="C92" s="1">
-        <v>10000</v>
-      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -1405,9 +1132,6 @@
       <c r="B93" s="1">
         <v>120</v>
       </c>
-      <c r="C93" s="1">
-        <v>913200</v>
-      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -1416,9 +1140,6 @@
       <c r="B94" s="1">
         <v>5260</v>
       </c>
-      <c r="C94" s="1">
-        <v>44262900</v>
-      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -1427,9 +1148,6 @@
       <c r="B95" s="1">
         <v>60</v>
       </c>
-      <c r="C95" s="1">
-        <v>580800</v>
-      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -1438,9 +1156,6 @@
       <c r="B96" s="1">
         <v>180</v>
       </c>
-      <c r="C96" s="1">
-        <v>579600</v>
-      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -1449,9 +1164,6 @@
       <c r="B97" s="1">
         <v>1788</v>
       </c>
-      <c r="C97" s="1">
-        <v>7402320</v>
-      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -1460,9 +1172,6 @@
       <c r="B98" s="1">
         <v>600</v>
       </c>
-      <c r="C98" s="1">
-        <v>2415000</v>
-      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -1471,9 +1180,6 @@
       <c r="B99" s="1">
         <v>120</v>
       </c>
-      <c r="C99" s="1">
-        <v>1584000</v>
-      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -1482,9 +1188,6 @@
       <c r="B100" s="1">
         <v>405</v>
       </c>
-      <c r="C100" s="1">
-        <v>1350675</v>
-      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -1493,9 +1196,6 @@
       <c r="B101" s="1">
         <v>2197</v>
       </c>
-      <c r="C101" s="1">
-        <v>25375350</v>
-      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -1504,9 +1204,6 @@
       <c r="B102" s="1">
         <v>960</v>
       </c>
-      <c r="C102" s="1">
-        <v>14256000</v>
-      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -1515,9 +1212,6 @@
       <c r="B103" s="1">
         <v>240</v>
       </c>
-      <c r="C103" s="1">
-        <v>938400</v>
-      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -1526,9 +1220,6 @@
       <c r="B104" s="1">
         <v>60</v>
       </c>
-      <c r="C104" s="1">
-        <v>528000</v>
-      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -1537,9 +1228,6 @@
       <c r="B105" s="1">
         <v>985</v>
       </c>
-      <c r="C105" s="1">
-        <v>17877750</v>
-      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -1548,9 +1236,6 @@
       <c r="B106" s="1">
         <v>3140</v>
       </c>
-      <c r="C106" s="1">
-        <v>27537800</v>
-      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -1559,9 +1244,6 @@
       <c r="B107" s="1">
         <v>110</v>
       </c>
-      <c r="C107" s="1">
-        <v>2783000</v>
-      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -1570,9 +1252,6 @@
       <c r="B108" s="1">
         <v>240</v>
       </c>
-      <c r="C108" s="1">
-        <v>1104000</v>
-      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -1581,9 +1260,6 @@
       <c r="B109" s="1">
         <v>150</v>
       </c>
-      <c r="C109" s="1">
-        <v>1402500</v>
-      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -1592,9 +1268,6 @@
       <c r="B110" s="1">
         <v>5</v>
       </c>
-      <c r="C110" s="1">
-        <v>1797000</v>
-      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -1603,9 +1276,6 @@
       <c r="B111" s="1">
         <v>6888</v>
       </c>
-      <c r="C111" s="1">
-        <v>98498400</v>
-      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -1614,9 +1284,6 @@
       <c r="B112" s="1">
         <v>120</v>
       </c>
-      <c r="C112" s="1">
-        <v>400200</v>
-      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -1625,9 +1292,6 @@
       <c r="B113" s="1">
         <v>48</v>
       </c>
-      <c r="C113" s="1">
-        <v>4512000</v>
-      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -1636,9 +1300,6 @@
       <c r="B114" s="1">
         <v>40</v>
       </c>
-      <c r="C114" s="1">
-        <v>4400000</v>
-      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -1647,9 +1308,6 @@
       <c r="B115" s="1">
         <v>2065</v>
       </c>
-      <c r="C115" s="1">
-        <v>31346700</v>
-      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -1658,9 +1316,6 @@
       <c r="B116" s="1">
         <v>120</v>
       </c>
-      <c r="C116" s="1">
-        <v>2376000</v>
-      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -1669,9 +1324,6 @@
       <c r="B117" s="1">
         <v>4428</v>
       </c>
-      <c r="C117" s="1">
-        <v>16295040</v>
-      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -1680,9 +1332,6 @@
       <c r="B118" s="1">
         <v>1180</v>
       </c>
-      <c r="C118" s="1">
-        <v>4749500</v>
-      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -1691,9 +1340,6 @@
       <c r="B119" s="1">
         <v>120</v>
       </c>
-      <c r="C119" s="1">
-        <v>151800</v>
-      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -1702,9 +1348,6 @@
       <c r="B120" s="1">
         <v>3572</v>
       </c>
-      <c r="C120" s="1">
-        <v>27111480</v>
-      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -1713,9 +1356,6 @@
       <c r="B121" s="1">
         <v>40</v>
       </c>
-      <c r="C121" s="1">
-        <v>39000</v>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -1724,9 +1364,6 @@
       <c r="B122" s="1">
         <v>8450</v>
       </c>
-      <c r="C122" s="1">
-        <v>34983000</v>
-      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -1735,9 +1372,6 @@
       <c r="B123" s="1">
         <v>2470</v>
       </c>
-      <c r="C123" s="1">
-        <v>21192600</v>
-      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -1746,9 +1380,6 @@
       <c r="B124" s="1">
         <v>60</v>
       </c>
-      <c r="C124" s="1">
-        <v>524700</v>
-      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -1757,9 +1388,6 @@
       <c r="B125" s="1">
         <v>47660</v>
       </c>
-      <c r="C125" s="1">
-        <v>93175300</v>
-      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -1768,9 +1396,6 @@
       <c r="B126" s="1">
         <v>148</v>
       </c>
-      <c r="C126" s="1">
-        <v>2767600</v>
-      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -1779,9 +1404,6 @@
       <c r="B127" s="1">
         <v>1</v>
       </c>
-      <c r="C127" s="1">
-        <v>1050000</v>
-      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -1790,9 +1412,6 @@
       <c r="B128" s="1">
         <v>90</v>
       </c>
-      <c r="C128" s="1">
-        <v>1589400</v>
-      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -1801,9 +1420,6 @@
       <c r="B129" s="1">
         <v>30</v>
       </c>
-      <c r="C129" s="1">
-        <v>158700</v>
-      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -1812,9 +1428,6 @@
       <c r="B130" s="1">
         <v>1</v>
       </c>
-      <c r="C130" s="1">
-        <v>12300</v>
-      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -1823,9 +1436,6 @@
       <c r="B131" s="1">
         <v>3540</v>
       </c>
-      <c r="C131" s="1">
-        <v>41276400</v>
-      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -1835,7 +1445,7 @@
         <v>240964</v>
       </c>
       <c r="C132" s="1">
-        <v>1551032655</v>
+        <v>NaN</v>
       </c>
     </row>
   </sheetData>

--- a/dist/document/dest/2020/10/doctors/88.xlsx
+++ b/dist/document/dest/2020/10/doctors/88.xlsx
@@ -376,7 +376,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C132"/>
+  <dimension ref="A1:C691"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,1055 +402,7594 @@
         <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B2" s="1">
-        <v>2030</v>
+        <v>1020</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8415000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Alphachymotrypsin BVP 8400</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B3" s="1">
-        <v>40</v>
+        <v>140</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1155000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>Althax (Thymomodulin 120mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B4" s="1">
-        <v>310</v>
+        <v>180</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1485000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Amisate (Donepezil 5mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B5" s="1">
-        <v>480</v>
+        <v>240</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1980000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Amursolic (Ursodeoxycholic 150mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B6" s="1">
-        <v>2060</v>
+        <v>60</v>
+      </c>
+      <c r="C6" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Anbach (Ginkgo biloba 80mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B7" s="1">
-        <v>9603</v>
+        <v>60</v>
+      </c>
+      <c r="C7" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Apbezo (Rabeprazole 20mg)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B8" s="1">
-        <v>105</v>
+        <v>30</v>
+      </c>
+      <c r="C8" s="1">
+        <v>247500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
+        <v>Alcomet (Metadoxine 500mg)</v>
       </c>
       <c r="B9" s="1">
-        <v>3137</v>
+        <v>60</v>
+      </c>
+      <c r="C9" s="1">
+        <v>495000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B10" s="1">
-        <v>1690</v>
+        <v>97</v>
+      </c>
+      <c r="C10" s="1">
+        <v>586850</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Atorcal 20mg (Atorvastatin)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B11" s="1">
-        <v>13537</v>
+        <v>30</v>
+      </c>
+      <c r="C11" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B12" s="1">
-        <v>19758</v>
+        <v>60</v>
+      </c>
+      <c r="C12" s="1">
+        <v>363000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B13" s="1">
-        <v>1880</v>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <v>363000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Azukon MR (Gliclazide B.P 30mg)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B14" s="1">
-        <v>1749</v>
+        <v>30</v>
+      </c>
+      <c r="C14" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BS One (Omega3 Fish Oil 1000mg)</v>
+        <v>Althax (Thymomodulin 120mg)</v>
       </c>
       <c r="B15" s="1">
-        <v>1815</v>
+        <v>30</v>
+      </c>
+      <c r="C15" s="1">
+        <v>181500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Be-Stedy 16 (Betahistine 16mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B16" s="1">
-        <v>1875</v>
+        <v>180</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2277000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Benzatique (Nebivolol 5mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B17" s="1">
-        <v>2323</v>
+        <v>120</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1518000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Berodual 10ml (Pressurized inhalation)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B18" s="1">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1138500</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Betadine Anti 10% 30ml</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="1">
+        <v>759000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B20" s="1">
-        <v>4473</v>
+        <v>30</v>
+      </c>
+      <c r="C20" s="1">
+        <v>379500</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Bluemoxi (Moxifloxacin 400mg)</v>
+        <v>Amisate (Donepezil 5mg)</v>
       </c>
       <c r="B21" s="1">
-        <v>170</v>
+        <v>30</v>
+      </c>
+      <c r="C21" s="1">
+        <v>379500</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Bonsartine (Losartan 25mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B22" s="1">
-        <v>1540</v>
+        <v>720</v>
+      </c>
+      <c r="C22" s="1">
+        <v>4672800</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Cadigrel (Clopidogrel 75mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B23" s="1">
-        <v>5225</v>
+        <v>300</v>
+      </c>
+      <c r="C23" s="1">
+        <v>1947000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Camoas (Flavoxat 200mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B24" s="1">
-        <v>964</v>
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>194700</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Cardival (Valsartan 80mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B25" s="1">
-        <v>420</v>
+        <v>60</v>
+      </c>
+      <c r="C25" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Casmorin (Amino acids-vitamins)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B26" s="1">
-        <v>150</v>
+        <v>60</v>
+      </c>
+      <c r="C26" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Cefactum (Cefdinir 300mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B27" s="1">
-        <v>355</v>
+        <v>60</v>
+      </c>
+      <c r="C27" s="1">
+        <v>389400</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Cefass (Etoricoxib 90mg)</v>
+        <v>Amursolic (Ursodeoxycholic 150mg)</v>
       </c>
       <c r="B28" s="1">
-        <v>681</v>
+        <v>70</v>
+      </c>
+      <c r="C28" s="1">
+        <v>454300</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Celivite (Multivitamin &amp; Minerals)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B29" s="1">
-        <v>3332</v>
+        <v>3234</v>
+      </c>
+      <c r="C29" s="1">
+        <v>18595500</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B30" s="1">
-        <v>2440</v>
+        <v>240</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1380000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Cododamed (Pregabalina 75mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B31" s="1">
-        <v>180</v>
+        <v>660</v>
+      </c>
+      <c r="C31" s="1">
+        <v>3795000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Concor 2.5mg (Bisoprolol )</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B32" s="1">
-        <v>85</v>
+        <v>468</v>
+      </c>
+      <c r="C32" s="1">
+        <v>2691000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Corbis (Bisoprolol 5mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B33" s="1">
-        <v>39</v>
+        <v>600</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3450000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Dasbrain (DHA, EPA, Tuna)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B34" s="1">
-        <v>590</v>
+        <v>690</v>
+      </c>
+      <c r="C34" s="1">
+        <v>3967500</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Diamicron MR 30mg (Gliclazide)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B35" s="1">
-        <v>90</v>
+        <v>180</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1035000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Diamicron MR 60mg (Gliclazide)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B36" s="1">
-        <v>300</v>
+        <v>285</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1638750</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>Diosfort (Diosmin 600mg)</v>
+        <v>Anbach (Ginkgo biloba 80mg)</v>
       </c>
       <c r="B37" s="1">
-        <v>2005</v>
+        <v>430</v>
+      </c>
+      <c r="C37" s="1">
+        <v>2472500</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Diurefar (Furosemide 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B38" s="1">
-        <v>198</v>
+        <v>1638</v>
+      </c>
+      <c r="C38" s="1">
+        <v>21261240</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>E-Cox (Etoricoxib 60mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B39" s="1">
-        <v>1685</v>
+        <v>321</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4166580</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Elpertone (Erdosteine 300mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B40" s="1">
-        <v>1063</v>
+        <v>168</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2180640</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Eprex 2.000 IU/0.5ml</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B41" s="1">
-        <v>15</v>
+        <v>168</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2180640</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Esofar (Esomeprazole 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B42" s="1">
-        <v>740</v>
+        <v>63</v>
+      </c>
+      <c r="C42" s="1">
+        <v>817740</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Espacox (Celecoxib 200mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B43" s="1">
-        <v>200</v>
+        <v>312</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4049760</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Fagendol (Flunarizine 5mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B44" s="1">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="C44" s="1">
+        <v>272580</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Febuday (Febuxostat 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B45" s="1">
-        <v>375</v>
+        <v>126</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1635480</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Febuxotid VK (Febuxostat 40mg)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B46" s="1">
-        <v>725</v>
+        <v>126</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1635480</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+        <v>ArdineClav 500/125 (Amoxicillin,Clavulanate)</v>
       </c>
       <c r="B47" s="1">
-        <v>210</v>
+        <v>84</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1090320</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Flagyl (Metronidazole) 250mg</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B48" s="1">
-        <v>60</v>
+        <v>870</v>
+      </c>
+      <c r="C48" s="1">
+        <v>6507600</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Fluostine (Flunarizin 5mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B49" s="1">
-        <v>4917</v>
+        <v>60</v>
+      </c>
+      <c r="C49" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Forlax (Macrogol 4000)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B50" s="1">
-        <v>180</v>
+        <v>240</v>
+      </c>
+      <c r="C50" s="1">
+        <v>1795200</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B51" s="1">
-        <v>42</v>
+        <v>60</v>
+      </c>
+      <c r="C51" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Gabena (Olanzapine 10mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B52" s="1">
-        <v>425</v>
+        <v>60</v>
+      </c>
+      <c r="C52" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B53" s="1">
-        <v>880</v>
+        <v>60</v>
+      </c>
+      <c r="C53" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Gluphakaps (Metformin 850mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B54" s="1">
-        <v>4889</v>
+        <v>150</v>
+      </c>
+      <c r="C54" s="1">
+        <v>1122000</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Goldagtin (Vildagliptin 50mg)</v>
+        <v>Atdoncam syrup (Piracetam800mg/5ml)</v>
       </c>
       <c r="B55" s="1">
-        <v>2330</v>
+        <v>60</v>
+      </c>
+      <c r="C55" s="1">
+        <v>448800</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Grafort (Dioctahedral smectite 3g)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B56" s="1">
-        <v>25</v>
+        <v>6532</v>
+      </c>
+      <c r="C56" s="1">
+        <v>50296400</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Gujujnam (Piracetam 800mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B57" s="1">
-        <v>4510</v>
+        <v>605</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4658500</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Hancetax (Mecobalamin 500mcg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B58" s="1">
-        <v>380</v>
+        <v>645</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4966500</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Hemfibrat (Fenofibrat 300mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B59" s="1">
-        <v>615</v>
+        <v>565</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4350500</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Herbesser 30mg (Diltiazem)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B60" s="1">
-        <v>30</v>
+        <v>760</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5852000</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Herbesser 60mg (Diltiazem)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B61" s="1">
-        <v>559</v>
+        <v>735</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5659500</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B62" s="1">
-        <v>155</v>
+        <v>370</v>
+      </c>
+      <c r="C62" s="1">
+        <v>2849000</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B63" s="1">
-        <v>296</v>
+        <v>745</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5736500</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B64" s="1">
-        <v>480</v>
+        <v>530</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4081000</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Jardiance (Empagliflozin 25mg)</v>
+        <v>Atorcal 20mg (Atorvastatin)</v>
       </c>
       <c r="B65" s="1">
-        <v>15</v>
+        <v>570</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4389000</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Ketovital</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B66" s="1">
-        <v>3040</v>
+        <v>670</v>
+      </c>
+      <c r="C66" s="1">
+        <v>3544300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Lactomin Plus (Probiotics)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B67" s="1">
-        <v>1310</v>
+        <v>1320</v>
+      </c>
+      <c r="C67" s="1">
+        <v>6982800</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Lantus Solostar 100IU/ml</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B68" s="1">
-        <v>28</v>
+        <v>1040</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5501600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Legalon (Silymarin 140mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B69" s="1">
-        <v>540</v>
+        <v>1380</v>
+      </c>
+      <c r="C69" s="1">
+        <v>7300200</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Lertazin (Levocetirizine 5mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B70" s="1">
-        <v>605</v>
+        <v>1350</v>
+      </c>
+      <c r="C70" s="1">
+        <v>7141500</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B71" s="1">
-        <v>2130</v>
+        <v>9654</v>
+      </c>
+      <c r="C71" s="1">
+        <v>51069660</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Locinvid (Levofloxacin 500mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B72" s="1">
-        <v>1695</v>
+        <v>330</v>
+      </c>
+      <c r="C72" s="1">
+        <v>1745700</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B73" s="1">
-        <v>950</v>
+        <v>1250</v>
+      </c>
+      <c r="C73" s="1">
+        <v>6612500</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Lucass 200 (Cefpodoxime)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B74" s="1">
-        <v>74</v>
+        <v>1065</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5633850</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+        <v>Ausbiobone (Glucosamine, chondroitin, manganese)</v>
       </c>
       <c r="B75" s="1">
-        <v>365</v>
+        <v>820</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4337800</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B76" s="1">
-        <v>240</v>
+        <v>120</v>
+      </c>
+      <c r="C76" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Meloflam (meloxicam 15mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B77" s="1">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="C77" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Metadroxyl (Metadoxine 500mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B78" s="1">
-        <v>930</v>
+        <v>120</v>
+      </c>
+      <c r="C78" s="1">
+        <v>924000</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B79" s="1">
-        <v>1320</v>
+        <v>500</v>
+      </c>
+      <c r="C79" s="1">
+        <v>3850000</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Minirin (Desmopressin acetate 0.1mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B80" s="1">
-        <v>30</v>
+        <v>200</v>
+      </c>
+      <c r="C80" s="1">
+        <v>1540000</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Mixtard 30 Flexpen 100IU/ml</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B81" s="1">
-        <v>96</v>
+        <v>40</v>
+      </c>
+      <c r="C81" s="1">
+        <v>308000</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Montelair (Montelukast 10mg)</v>
+        <v>Azintal Forte (Azintamid, pancreatin, cellulase, simethicon)</v>
       </c>
       <c r="B82" s="1">
-        <v>1820</v>
+        <v>90</v>
+      </c>
+      <c r="C82" s="1">
+        <v>693000</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Mosad MT (Mosapride 5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B83" s="1">
-        <v>7693</v>
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Myomethol (Methocarbamol 500mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B84" s="1">
-        <v>1945</v>
+        <v>60</v>
+      </c>
+      <c r="C84" s="1">
+        <v>276000</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Nevol (Nebivolol 2.5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B85" s="1">
-        <v>60</v>
+        <v>165</v>
+      </c>
+      <c r="C85" s="1">
+        <v>759000</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Newbutin (Trimebutine 300mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B86" s="1">
-        <v>280</v>
+        <v>135</v>
+      </c>
+      <c r="C86" s="1">
+        <v>621000</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Nikoramyl (Nicorandil 5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B87" s="1">
-        <v>255</v>
+        <v>915</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4209000</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Nolpaza (Pantoprazole 40mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B88" s="1">
-        <v>3360</v>
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>138000</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Noraquick (Gabapentin 300mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B89" s="1">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="C89" s="1">
+        <v>690000</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Normodipine (Amlodipine 5mg)</v>
+        <v>BS One (Omega3 Fish Oil 1000mg)</v>
       </c>
       <c r="B90" s="1">
-        <v>2140</v>
+        <v>120</v>
+      </c>
+      <c r="C90" s="1">
+        <v>552000</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B91" s="1">
-        <v>710</v>
+        <v>210</v>
+      </c>
+      <c r="C91" s="1">
+        <v>687750</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Nước Suối Nhỏ</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B92" s="1">
-        <v>2</v>
+        <v>240</v>
+      </c>
+      <c r="C92" s="1">
+        <v>786000</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B93" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C93" s="1">
+        <v>294750</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Opecerin (Diacerein 50mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B94" s="1">
-        <v>5260</v>
+        <v>1405</v>
+      </c>
+      <c r="C94" s="1">
+        <v>4601375</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Originko (Ginkgo biloba 80mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B95" s="1">
-        <v>60</v>
+        <v>120</v>
+      </c>
+      <c r="C95" s="1">
+        <v>393000</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Oxabiti (Mecobalamine 500mg)</v>
+        <v>Be-Stedy 16 (Betahistine 16mg)</v>
       </c>
       <c r="B96" s="1">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="C96" s="1">
+        <v>294750</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Pharcotinex</v>
+        <v>Bentarcin (Thymomodulin 80mg)</v>
       </c>
       <c r="B97" s="1">
-        <v>1788</v>
+        <v>180</v>
+      </c>
+      <c r="C97" s="1">
+        <v>828000</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Philiver (Carduus, vitamin..)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B98" s="1">
-        <v>600</v>
+        <v>90</v>
+      </c>
+      <c r="C98" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B99" s="1">
-        <v>120</v>
+        <v>90</v>
+      </c>
+      <c r="C99" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Picencal (Calcium &amp; Vitamin D)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B100" s="1">
-        <v>405</v>
+        <v>120</v>
+      </c>
+      <c r="C100" s="1">
+        <v>831600</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Prazogood (Esomeprazole 40mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B101" s="1">
-        <v>2197</v>
+        <v>90</v>
+      </c>
+      <c r="C101" s="1">
+        <v>623700</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Prepentin (Pregabalin 75mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B102" s="1">
-        <v>960</v>
+        <v>60</v>
+      </c>
+      <c r="C102" s="1">
+        <v>415800</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Proginale (L-Cystine 500mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B103" s="1">
-        <v>240</v>
+        <v>1075</v>
+      </c>
+      <c r="C103" s="1">
+        <v>7449750</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Prohepatis (Ursodesoxycholic 200mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B104" s="1">
-        <v>60</v>
+        <v>15</v>
+      </c>
+      <c r="C104" s="1">
+        <v>103950</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Prorid (Finasteride 5 mg)</v>
+        <v>Benzatique (Nebivolol 5mg)</v>
       </c>
       <c r="B105" s="1">
-        <v>985</v>
+        <v>30</v>
+      </c>
+      <c r="C105" s="1">
+        <v>207900</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Rabesime (Rabeprazole 20mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B106" s="1">
-        <v>3140</v>
+        <v>1</v>
+      </c>
+      <c r="C106" s="1">
+        <v>141500</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Refix (Rifaximin 550mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B107" s="1">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="C107" s="1">
+        <v>141500</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>S-cort (Rabamipide 100mg)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B108" s="1">
-        <v>240</v>
+        <v>3</v>
+      </c>
+      <c r="C108" s="1">
+        <v>424500</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Sedanxio (Lạc tiên)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B109" s="1">
-        <v>150</v>
+        <v>1</v>
+      </c>
+      <c r="C109" s="1">
+        <v>141500</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+        <v>Berodual 10ml (Pressurized inhalation)</v>
       </c>
       <c r="B110" s="1">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="C110" s="1">
+        <v>141500</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Sotig (Esomeprazole 40mg)</v>
+        <v>Betadine Anti 10% 30ml</v>
       </c>
       <c r="B111" s="1">
-        <v>6888</v>
+        <v>1</v>
+      </c>
+      <c r="C111" s="1">
+        <v>37700</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Spiromide (Spironolactone, Furosemide)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B112" s="1">
-        <v>120</v>
+        <v>388</v>
+      </c>
+      <c r="C112" s="1">
+        <v>1761520</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Stromectin (Ivermectin 6mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B113" s="1">
-        <v>48</v>
+        <v>264</v>
+      </c>
+      <c r="C113" s="1">
+        <v>1198560</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Stroseca (Ivermectin 6mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B114" s="1">
-        <v>40</v>
+        <v>280</v>
+      </c>
+      <c r="C114" s="1">
+        <v>1271200</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B115" s="1">
-        <v>2065</v>
+        <v>140</v>
+      </c>
+      <c r="C115" s="1">
+        <v>635600</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>SunnyRoitin (Citicoline 500mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B116" s="1">
-        <v>120</v>
+        <v>376</v>
+      </c>
+      <c r="C116" s="1">
+        <v>1707040</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Talmain (Talniflumate 370mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B117" s="1">
-        <v>4428</v>
+        <v>2356</v>
+      </c>
+      <c r="C117" s="1">
+        <v>10696240</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Targinos (Arginine 400mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B118" s="1">
-        <v>1180</v>
+        <v>252</v>
+      </c>
+      <c r="C118" s="1">
+        <v>1144080</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Tazilex (Methimazol 5mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B119" s="1">
-        <v>120</v>
+        <v>28</v>
+      </c>
+      <c r="C119" s="1">
+        <v>127120</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Telod (Telmisartan 40mg)</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B120" s="1">
-        <v>3572</v>
+        <v>168</v>
+      </c>
+      <c r="C120" s="1">
+        <v>762720</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Tetracyclin 500mg</v>
+        <v>Bisnol (Tripotassium dicitrato bismuthate 120mg)</v>
       </c>
       <c r="B121" s="1">
-        <v>40</v>
+        <v>112</v>
+      </c>
+      <c r="C121" s="1">
+        <v>508480</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Timiroitin</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B122" s="1">
-        <v>8450</v>
+        <v>20</v>
+      </c>
+      <c r="C122" s="1">
+        <v>1062600</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Toropi (Lercanidipine 10mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B123" s="1">
-        <v>2470</v>
+        <v>15</v>
+      </c>
+      <c r="C123" s="1">
+        <v>796950</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Trimebutine Gerda 200mg</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B124" s="1">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="C124" s="1">
+        <v>1434510</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Trisova (Trimetazidine 20mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B125" s="1">
-        <v>47660</v>
+        <v>10</v>
+      </c>
+      <c r="C125" s="1">
+        <v>531300</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Vinaflam (Cefuroxime 500mg)</v>
+        <v>Bluemoxi (Moxifloxacin 400mg)</v>
       </c>
       <c r="B126" s="1">
-        <v>148</v>
+        <v>10</v>
+      </c>
+      <c r="C126" s="1">
+        <v>531300</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v xml:space="preserve">VỚ JOBST RELIEF ĐÙI (M) </v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B127" s="1">
-        <v>1</v>
+        <v>60</v>
+      </c>
+      <c r="C127" s="1">
+        <v>131100</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Xatral XL(Alfuzosine 10mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B128" s="1">
-        <v>90</v>
+        <v>15</v>
+      </c>
+      <c r="C128" s="1">
+        <v>32775</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Zedcal-OP (Calcium, zinc, D3)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B129" s="1">
-        <v>30</v>
+        <v>120</v>
+      </c>
+      <c r="C129" s="1">
+        <v>262200</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Zentel (albendazole)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B130" s="1">
-        <v>1</v>
+        <v>130</v>
+      </c>
+      <c r="C130" s="1">
+        <v>284050</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+        <v>Bonsartine (Losartan 25mg)</v>
       </c>
       <c r="B131" s="1">
-        <v>3540</v>
+        <v>45</v>
+      </c>
+      <c r="C131" s="1">
+        <v>98325</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
+        <v>Bonsartine (Losartan 25mg)</v>
+      </c>
+      <c r="B132" s="1">
+        <v>770</v>
+      </c>
+      <c r="C132" s="1">
+        <v>1682450</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="str">
+        <v>Bonsartine (Losartan 25mg)</v>
+      </c>
+      <c r="B133" s="1">
+        <v>68</v>
+      </c>
+      <c r="C133" s="1">
+        <v>148580</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="str">
+        <v>Bonsartine (Losartan 25mg)</v>
+      </c>
+      <c r="B134" s="1">
+        <v>120</v>
+      </c>
+      <c r="C134" s="1">
+        <v>262200</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="str">
+        <v>Bonsartine (Losartan 25mg)</v>
+      </c>
+      <c r="B135" s="1">
+        <v>120</v>
+      </c>
+      <c r="C135" s="1">
+        <v>262200</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B136" s="1">
+        <v>275</v>
+      </c>
+      <c r="C136" s="1">
+        <v>3856875</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B137" s="1">
+        <v>150</v>
+      </c>
+      <c r="C137" s="1">
+        <v>2103750</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B138" s="1">
+        <v>205</v>
+      </c>
+      <c r="C138" s="1">
+        <v>2875125</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B139" s="1">
+        <v>210</v>
+      </c>
+      <c r="C139" s="1">
+        <v>2945250</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B140" s="1">
+        <v>180</v>
+      </c>
+      <c r="C140" s="1">
+        <v>2524500</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B141" s="1">
+        <v>2918</v>
+      </c>
+      <c r="C141" s="1">
+        <v>40924950</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B142" s="1">
+        <v>255</v>
+      </c>
+      <c r="C142" s="1">
+        <v>3576375</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B143" s="1">
+        <v>125</v>
+      </c>
+      <c r="C143" s="1">
+        <v>1753125</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B144" s="1">
+        <v>165</v>
+      </c>
+      <c r="C144" s="1">
+        <v>2314125</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="str">
+        <v>Cadigrel (Clopidogrel 75mg)</v>
+      </c>
+      <c r="B145" s="1">
+        <v>120</v>
+      </c>
+      <c r="C145" s="1">
+        <v>1683000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B146" s="1">
+        <v>60</v>
+      </c>
+      <c r="C146" s="1">
+        <v>432300</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B147" s="1">
+        <v>30</v>
+      </c>
+      <c r="C147" s="1">
+        <v>216150</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B148" s="1">
+        <v>626</v>
+      </c>
+      <c r="C148" s="1">
+        <v>4510330</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B149" s="1">
+        <v>90</v>
+      </c>
+      <c r="C149" s="1">
+        <v>648450</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B150" s="1">
+        <v>60</v>
+      </c>
+      <c r="C150" s="1">
+        <v>432300</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B151" s="1">
+        <v>70</v>
+      </c>
+      <c r="C151" s="1">
+        <v>504350</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="str">
+        <v>Camoas (Flavoxat 200mg)</v>
+      </c>
+      <c r="B152" s="1">
+        <v>60</v>
+      </c>
+      <c r="C152" s="1">
+        <v>432300</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="str">
+        <v>Captopril 25</v>
+      </c>
+      <c r="B153" s="1">
+        <v>10</v>
+      </c>
+      <c r="C153" s="1">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="str">
+        <v>Cardival (Valsartan 80mg)</v>
+      </c>
+      <c r="B154" s="1">
+        <v>30</v>
+      </c>
+      <c r="C154" s="1">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="str">
+        <v>Cardival (Valsartan 80mg)</v>
+      </c>
+      <c r="B155" s="1">
+        <v>60</v>
+      </c>
+      <c r="C155" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="str">
+        <v>Cardival (Valsartan 80mg)</v>
+      </c>
+      <c r="B156" s="1">
+        <v>90</v>
+      </c>
+      <c r="C156" s="1">
+        <v>742500</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="str">
+        <v>Cardival (Valsartan 80mg)</v>
+      </c>
+      <c r="B157" s="1">
+        <v>60</v>
+      </c>
+      <c r="C157" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="str">
+        <v>Casmorin (Amino acids-vitamins)</v>
+      </c>
+      <c r="B158" s="1">
+        <v>60</v>
+      </c>
+      <c r="C158" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="str">
+        <v>Casmorin (Amino acids-vitamins)</v>
+      </c>
+      <c r="B159" s="1">
+        <v>90</v>
+      </c>
+      <c r="C159" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="str">
+        <v>Cefactum (Cefdinir 300mg)</v>
+      </c>
+      <c r="B160" s="1">
+        <v>50</v>
+      </c>
+      <c r="C160" s="1">
+        <v>852500</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="str">
+        <v>Cefactum (Cefdinir 300mg)</v>
+      </c>
+      <c r="B161" s="1">
+        <v>80</v>
+      </c>
+      <c r="C161" s="1">
+        <v>1364000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="str">
+        <v>Cefactum (Cefdinir 300mg)</v>
+      </c>
+      <c r="B162" s="1">
+        <v>30</v>
+      </c>
+      <c r="C162" s="1">
+        <v>511500</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="str">
+        <v>Cefactum (Cefdinir 300mg)</v>
+      </c>
+      <c r="B163" s="1">
+        <v>30</v>
+      </c>
+      <c r="C163" s="1">
+        <v>511500</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="str">
+        <v>Cefactum (Cefdinir 300mg)</v>
+      </c>
+      <c r="B164" s="1">
+        <v>329</v>
+      </c>
+      <c r="C164" s="1">
+        <v>5609450</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B165" s="1">
+        <v>25</v>
+      </c>
+      <c r="C165" s="1">
+        <v>247500</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B166" s="1">
+        <v>41</v>
+      </c>
+      <c r="C166" s="1">
+        <v>405900</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B167" s="1">
+        <v>20</v>
+      </c>
+      <c r="C167" s="1">
+        <v>198000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B168" s="1">
+        <v>39</v>
+      </c>
+      <c r="C168" s="1">
+        <v>386100</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B169" s="1">
+        <v>54</v>
+      </c>
+      <c r="C169" s="1">
+        <v>534600</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B170" s="1">
+        <v>312</v>
+      </c>
+      <c r="C170" s="1">
+        <v>3088800</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B171" s="1">
+        <v>58</v>
+      </c>
+      <c r="C171" s="1">
+        <v>574200</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B172" s="1">
+        <v>10</v>
+      </c>
+      <c r="C172" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B173" s="1">
+        <v>57</v>
+      </c>
+      <c r="C173" s="1">
+        <v>564300</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="str">
+        <v>Cefass (Etoricoxib 90mg)</v>
+      </c>
+      <c r="B174" s="1">
+        <v>10</v>
+      </c>
+      <c r="C174" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B175" s="1">
+        <v>50</v>
+      </c>
+      <c r="C175" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B176" s="1">
+        <v>210</v>
+      </c>
+      <c r="C176" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B177" s="1">
+        <v>390</v>
+      </c>
+      <c r="C177" s="1">
+        <v>1345500</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B178" s="1">
+        <v>210</v>
+      </c>
+      <c r="C178" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B179" s="1">
+        <v>150</v>
+      </c>
+      <c r="C179" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B180" s="1">
+        <v>2084</v>
+      </c>
+      <c r="C180" s="1">
+        <v>7189800</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B181" s="1">
+        <v>45</v>
+      </c>
+      <c r="C181" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B182" s="1">
+        <v>150</v>
+      </c>
+      <c r="C182" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B183" s="1">
+        <v>35</v>
+      </c>
+      <c r="C183" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="str">
+        <v>Celivite (Multivitamin &amp; Minerals)</v>
+      </c>
+      <c r="B184" s="1">
+        <v>150</v>
+      </c>
+      <c r="C184" s="1">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B185" s="1">
+        <v>75</v>
+      </c>
+      <c r="C185" s="1">
+        <v>808500</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B186" s="1">
+        <v>175</v>
+      </c>
+      <c r="C186" s="1">
+        <v>1886500</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B187" s="1">
+        <v>90</v>
+      </c>
+      <c r="C187" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B188" s="1">
+        <v>90</v>
+      </c>
+      <c r="C188" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B189" s="1">
+        <v>90</v>
+      </c>
+      <c r="C189" s="1">
+        <v>970200</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B190" s="1">
+        <v>730</v>
+      </c>
+      <c r="C190" s="1">
+        <v>7869400</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B191" s="1">
+        <v>180</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1940400</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B192" s="1">
+        <v>125</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1347500</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B193" s="1">
+        <v>20</v>
+      </c>
+      <c r="C193" s="1">
+        <v>215600</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="str">
+        <v>Ciheptal (Piracetam 1200mg) 10ml</v>
+      </c>
+      <c r="B194" s="1">
+        <v>30</v>
+      </c>
+      <c r="C194" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="str">
+        <v>Cilavef (Celecoxib 200mg)</v>
+      </c>
+      <c r="B195" s="1">
+        <v>14</v>
+      </c>
+      <c r="C195" s="1">
+        <v>95480</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="str">
+        <v>Cilavef (Celecoxib 200mg)</v>
+      </c>
+      <c r="B196" s="1">
+        <v>14</v>
+      </c>
+      <c r="C196" s="1">
+        <v>95480</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="str">
+        <v>Cododamed (Pregabalina 75mg)</v>
+      </c>
+      <c r="B197" s="1">
+        <v>75</v>
+      </c>
+      <c r="C197" s="1">
+        <v>1295250</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="str">
+        <v>Concor 2.5mg (Bisoprolol )</v>
+      </c>
+      <c r="B198" s="1">
+        <v>30</v>
+      </c>
+      <c r="C198" s="1">
+        <v>108600</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="str">
+        <v>Corbis (Bisoprolol 5mg)</v>
+      </c>
+      <c r="B199" s="1">
+        <v>60</v>
+      </c>
+      <c r="C199" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B200" s="1">
+        <v>270</v>
+      </c>
+      <c r="C200" s="1">
+        <v>3742200</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B201" s="1">
+        <v>60</v>
+      </c>
+      <c r="C201" s="1">
+        <v>831600</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B202" s="1">
+        <v>15</v>
+      </c>
+      <c r="C202" s="1">
+        <v>207900</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B203" s="1">
+        <v>30</v>
+      </c>
+      <c r="C203" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B204" s="1">
+        <v>30</v>
+      </c>
+      <c r="C204" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B205" s="1">
+        <v>8</v>
+      </c>
+      <c r="C205" s="1">
+        <v>110880</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="str">
+        <v>Dasbrain (DHA, EPA, Tuna)</v>
+      </c>
+      <c r="B206" s="1">
+        <v>120</v>
+      </c>
+      <c r="C206" s="1">
+        <v>1663200</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B207" s="1">
+        <v>60</v>
+      </c>
+      <c r="C207" s="1">
+        <v>216600</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B208" s="1">
+        <v>375</v>
+      </c>
+      <c r="C208" s="1">
+        <v>1353750</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B209" s="1">
+        <v>30</v>
+      </c>
+      <c r="C209" s="1">
+        <v>108300</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B210" s="1">
+        <v>570</v>
+      </c>
+      <c r="C210" s="1">
+        <v>2057700</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="str">
+        <v>Diamicron MR 30mg (Gliclazide)</v>
+      </c>
+      <c r="B211" s="1">
+        <v>40</v>
+      </c>
+      <c r="C211" s="1">
+        <v>144400</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B212" s="1">
+        <v>30</v>
+      </c>
+      <c r="C212" s="1">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B213" s="1">
+        <v>60</v>
+      </c>
+      <c r="C213" s="1">
+        <v>394800</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B214" s="1">
+        <v>30</v>
+      </c>
+      <c r="C214" s="1">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="str">
+        <v>Diamicron MR 60mg (Gliclazide)</v>
+      </c>
+      <c r="B215" s="1">
+        <v>30</v>
+      </c>
+      <c r="C215" s="1">
+        <v>197400</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B216" s="1">
+        <v>1402</v>
+      </c>
+      <c r="C216" s="1">
+        <v>9176090</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B217" s="1">
+        <v>45</v>
+      </c>
+      <c r="C217" s="1">
+        <v>294525</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B218" s="1">
+        <v>90</v>
+      </c>
+      <c r="C218" s="1">
+        <v>589050</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B219" s="1">
+        <v>240</v>
+      </c>
+      <c r="C219" s="1">
+        <v>1570800</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B220" s="1">
+        <v>90</v>
+      </c>
+      <c r="C220" s="1">
+        <v>589050</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B221" s="1">
+        <v>30</v>
+      </c>
+      <c r="C221" s="1">
+        <v>196350</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B222" s="1">
+        <v>135</v>
+      </c>
+      <c r="C222" s="1">
+        <v>883575</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B223" s="1">
+        <v>225</v>
+      </c>
+      <c r="C223" s="1">
+        <v>1472625</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B224" s="1">
+        <v>120</v>
+      </c>
+      <c r="C224" s="1">
+        <v>785400</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="str">
+        <v>Diosfort (Diosmin 600mg)</v>
+      </c>
+      <c r="B225" s="1">
+        <v>140</v>
+      </c>
+      <c r="C225" s="1">
+        <v>916300</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B226" s="1">
+        <v>5</v>
+      </c>
+      <c r="C226" s="1">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B227" s="1">
+        <v>8</v>
+      </c>
+      <c r="C227" s="1">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B228" s="1">
+        <v>73</v>
+      </c>
+      <c r="C228" s="1">
+        <v>17885</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="str">
+        <v>Diurefar (Furosemide 40mg)</v>
+      </c>
+      <c r="B229" s="1">
+        <v>30</v>
+      </c>
+      <c r="C229" s="1">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>Duphalac (Iactulose)</v>
+      </c>
+      <c r="B230" s="1">
+        <v>25</v>
+      </c>
+      <c r="C230" s="1">
+        <v>143750</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="str">
+        <v>Duphalac (Lactulose)</v>
+      </c>
+      <c r="B231" s="1">
+        <v>15</v>
+      </c>
+      <c r="C231" s="1">
+        <v>86250</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="str">
+        <v>Duphalac (Lactulose)</v>
+      </c>
+      <c r="B232" s="1">
+        <v>30</v>
+      </c>
+      <c r="C232" s="1">
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B233" s="1">
+        <v>163</v>
+      </c>
+      <c r="C233" s="1">
+        <v>1075800</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B234" s="1">
+        <v>132</v>
+      </c>
+      <c r="C234" s="1">
+        <v>871200</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B235" s="1">
+        <v>111</v>
+      </c>
+      <c r="C235" s="1">
+        <v>732600</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B236" s="1">
+        <v>112</v>
+      </c>
+      <c r="C236" s="1">
+        <v>739200</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B237" s="1">
+        <v>133</v>
+      </c>
+      <c r="C237" s="1">
+        <v>877800</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B238" s="1">
+        <v>802</v>
+      </c>
+      <c r="C238" s="1">
+        <v>5293200</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B239" s="1">
+        <v>45</v>
+      </c>
+      <c r="C239" s="1">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B240" s="1">
+        <v>153</v>
+      </c>
+      <c r="C240" s="1">
+        <v>1009800</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B241" s="1">
+        <v>94</v>
+      </c>
+      <c r="C241" s="1">
+        <v>620400</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="str">
+        <v>E-Cox (Etoricoxib 60mg)</v>
+      </c>
+      <c r="B242" s="1">
+        <v>73</v>
+      </c>
+      <c r="C242" s="1">
+        <v>481800</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B243" s="1">
+        <v>135</v>
+      </c>
+      <c r="C243" s="1">
+        <v>876150</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B244" s="1">
+        <v>165</v>
+      </c>
+      <c r="C244" s="1">
+        <v>1070850</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B245" s="1">
+        <v>30</v>
+      </c>
+      <c r="C245" s="1">
+        <v>194700</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B246" s="1">
+        <v>150</v>
+      </c>
+      <c r="C246" s="1">
+        <v>973500</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B247" s="1">
+        <v>650</v>
+      </c>
+      <c r="C247" s="1">
+        <v>4218500</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B248" s="1">
+        <v>135</v>
+      </c>
+      <c r="C248" s="1">
+        <v>876150</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B249" s="1">
+        <v>75</v>
+      </c>
+      <c r="C249" s="1">
+        <v>486750</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="str">
+        <v>Elpertone (Erdosteine 300mg)</v>
+      </c>
+      <c r="B250" s="1">
+        <v>21</v>
+      </c>
+      <c r="C250" s="1">
+        <v>136290</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="str">
+        <v>Esofar (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B251" s="1">
+        <v>85</v>
+      </c>
+      <c r="C251" s="1">
+        <v>1309000</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B252" s="1">
+        <v>14</v>
+      </c>
+      <c r="C252" s="1">
+        <v>161700</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B253" s="1">
+        <v>14</v>
+      </c>
+      <c r="C253" s="1">
+        <v>161700</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B254" s="1">
+        <v>10</v>
+      </c>
+      <c r="C254" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B255" s="1">
+        <v>52</v>
+      </c>
+      <c r="C255" s="1">
+        <v>600600</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B256" s="1">
+        <v>24</v>
+      </c>
+      <c r="C256" s="1">
+        <v>277200</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="str">
+        <v>Espacox (Celecoxib 200mg)</v>
+      </c>
+      <c r="B257" s="1">
+        <v>10</v>
+      </c>
+      <c r="C257" s="1">
+        <v>115500</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B258" s="1">
+        <v>60</v>
+      </c>
+      <c r="C258" s="1">
+        <v>179400</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="str">
+        <v>Fagendol (Flunarizine 5mg)</v>
+      </c>
+      <c r="B259" s="1">
+        <v>30</v>
+      </c>
+      <c r="C259" s="1">
+        <v>89700</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B260" s="1">
+        <v>60</v>
+      </c>
+      <c r="C260" s="1">
+        <v>957000</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B261" s="1">
+        <v>50</v>
+      </c>
+      <c r="C261" s="1">
+        <v>797500</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B262" s="1">
+        <v>8</v>
+      </c>
+      <c r="C262" s="1">
+        <v>127600</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B263" s="1">
+        <v>60</v>
+      </c>
+      <c r="C263" s="1">
+        <v>957000</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B264" s="1">
+        <v>90</v>
+      </c>
+      <c r="C264" s="1">
+        <v>1435500</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B265" s="1">
+        <v>255</v>
+      </c>
+      <c r="C265" s="1">
+        <v>4067250</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B266" s="1">
+        <v>30</v>
+      </c>
+      <c r="C266" s="1">
+        <v>478500</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="str">
+        <v>Febuday (Febuxostat 40mg)</v>
+      </c>
+      <c r="B267" s="1">
+        <v>60</v>
+      </c>
+      <c r="C267" s="1">
+        <v>957000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B268" s="1">
+        <v>30</v>
+      </c>
+      <c r="C268" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>Febuxotid VK (Febuxostat 40mg)</v>
+      </c>
+      <c r="B269" s="1">
+        <v>275</v>
+      </c>
+      <c r="C269" s="1">
+        <v>4235000</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B270" s="1">
+        <v>60</v>
+      </c>
+      <c r="C270" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B271" s="1">
+        <v>60</v>
+      </c>
+      <c r="C271" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B272" s="1">
+        <v>30</v>
+      </c>
+      <c r="C272" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B273" s="1">
+        <v>120</v>
+      </c>
+      <c r="C273" s="1">
+        <v>621000</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B274" s="1">
+        <v>270</v>
+      </c>
+      <c r="C274" s="1">
+        <v>1397250</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B275" s="1">
+        <v>30</v>
+      </c>
+      <c r="C275" s="1">
+        <v>155250</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="str">
+        <v>Fiora (Iron hydroxyde, folic acid, pyridoxin)</v>
+      </c>
+      <c r="B276" s="1">
+        <v>60</v>
+      </c>
+      <c r="C276" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B277" s="1">
+        <v>40</v>
+      </c>
+      <c r="C277" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B278" s="1">
+        <v>40</v>
+      </c>
+      <c r="C278" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="str">
+        <v>Flagyl (Metronidazole) 250mg</v>
+      </c>
+      <c r="B279" s="1">
+        <v>140</v>
+      </c>
+      <c r="C279" s="1">
+        <v>161000</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="str">
+        <v>Flexilor 4 (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B280" s="1">
+        <v>10</v>
+      </c>
+      <c r="C280" s="1">
+        <v>99000</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B281" s="1">
+        <v>250</v>
+      </c>
+      <c r="C281" s="1">
+        <v>747500</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B282" s="1">
+        <v>295</v>
+      </c>
+      <c r="C282" s="1">
+        <v>882050</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B283" s="1">
+        <v>180</v>
+      </c>
+      <c r="C283" s="1">
+        <v>538200</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B284" s="1">
+        <v>180</v>
+      </c>
+      <c r="C284" s="1">
+        <v>538200</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B285" s="1">
+        <v>300</v>
+      </c>
+      <c r="C285" s="1">
+        <v>897000</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B286" s="1">
+        <v>1870</v>
+      </c>
+      <c r="C286" s="1">
+        <v>5591300</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B287" s="1">
+        <v>150</v>
+      </c>
+      <c r="C287" s="1">
+        <v>448500</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B288" s="1">
+        <v>285</v>
+      </c>
+      <c r="C288" s="1">
+        <v>852150</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B289" s="1">
+        <v>300</v>
+      </c>
+      <c r="C289" s="1">
+        <v>897000</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="str">
+        <v>Fluostine (Flunarizin 5mg)</v>
+      </c>
+      <c r="B290" s="1">
+        <v>120</v>
+      </c>
+      <c r="C290" s="1">
+        <v>358800</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B291" s="1">
+        <v>60</v>
+      </c>
+      <c r="C291" s="1">
+        <v>294000</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="str">
+        <v>Forlax (Macrogol 4000)</v>
+      </c>
+      <c r="B292" s="1">
+        <v>20</v>
+      </c>
+      <c r="C292" s="1">
+        <v>98000</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="str">
+        <v>Forxiga (Dapagliflozin 10mg)</v>
+      </c>
+      <c r="B293" s="1">
+        <v>30</v>
+      </c>
+      <c r="C293" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B294" s="1">
+        <v>14</v>
+      </c>
+      <c r="C294" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B295" s="1">
+        <v>15</v>
+      </c>
+      <c r="C295" s="1">
+        <v>945000</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="str">
+        <v>Freshvox (Clarithromycin, esomeprazole, tinidazole)</v>
+      </c>
+      <c r="B296" s="1">
+        <v>14</v>
+      </c>
+      <c r="C296" s="1">
+        <v>882000</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B297" s="1">
+        <v>21</v>
+      </c>
+      <c r="C297" s="1">
+        <v>72450</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B298" s="1">
+        <v>10</v>
+      </c>
+      <c r="C298" s="1">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B299" s="1">
+        <v>23</v>
+      </c>
+      <c r="C299" s="1">
+        <v>79350</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B300" s="1">
+        <v>10</v>
+      </c>
+      <c r="C300" s="1">
+        <v>34500</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B301" s="1">
+        <v>43</v>
+      </c>
+      <c r="C301" s="1">
+        <v>148350</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B302" s="1">
+        <v>82</v>
+      </c>
+      <c r="C302" s="1">
+        <v>282900</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B303" s="1">
+        <v>20</v>
+      </c>
+      <c r="C303" s="1">
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="str">
+        <v>Gabena (Olanzapine 10mg)</v>
+      </c>
+      <c r="B304" s="1">
+        <v>36</v>
+      </c>
+      <c r="C304" s="1">
+        <v>124200</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B305" s="1">
+        <v>20</v>
+      </c>
+      <c r="C305" s="1">
+        <v>165000</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B306" s="1">
+        <v>140</v>
+      </c>
+      <c r="C306" s="1">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B307" s="1">
+        <v>320</v>
+      </c>
+      <c r="C307" s="1">
+        <v>2640000</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B308" s="1">
+        <v>40</v>
+      </c>
+      <c r="C308" s="1">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B309" s="1">
+        <v>240</v>
+      </c>
+      <c r="C309" s="1">
+        <v>1980000</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B310" s="1">
+        <v>510</v>
+      </c>
+      <c r="C310" s="1">
+        <v>4207500</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B311" s="1">
+        <v>60</v>
+      </c>
+      <c r="C311" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B312" s="1">
+        <v>120</v>
+      </c>
+      <c r="C312" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="str">
+        <v>Gesmix (Pepsin,papain,diastase,cellulase,pancreatin,pancrelipase)</v>
+      </c>
+      <c r="B313" s="1">
+        <v>60</v>
+      </c>
+      <c r="C313" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B314" s="1">
+        <v>210</v>
+      </c>
+      <c r="C314" s="1">
+        <v>531300</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B315" s="1">
+        <v>67</v>
+      </c>
+      <c r="C315" s="1">
+        <v>169510</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B316" s="1">
+        <v>600</v>
+      </c>
+      <c r="C316" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B317" s="1">
+        <v>150</v>
+      </c>
+      <c r="C317" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B318" s="1">
+        <v>510</v>
+      </c>
+      <c r="C318" s="1">
+        <v>1290300</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B319" s="1">
+        <v>2127</v>
+      </c>
+      <c r="C319" s="1">
+        <v>5381310</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B320" s="1">
+        <v>168</v>
+      </c>
+      <c r="C320" s="1">
+        <v>425040</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B321" s="1">
+        <v>135</v>
+      </c>
+      <c r="C321" s="1">
+        <v>341550</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B322" s="1">
+        <v>345</v>
+      </c>
+      <c r="C322" s="1">
+        <v>872850</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="str">
+        <v>Gluphakaps (Metformin 850mg)</v>
+      </c>
+      <c r="B323" s="1">
+        <v>60</v>
+      </c>
+      <c r="C323" s="1">
+        <v>151800</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B324" s="1">
+        <v>45</v>
+      </c>
+      <c r="C324" s="1">
+        <v>386100</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B325" s="1">
+        <v>450</v>
+      </c>
+      <c r="C325" s="1">
+        <v>3861000</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B326" s="1">
+        <v>180</v>
+      </c>
+      <c r="C326" s="1">
+        <v>1544400</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="str">
+        <v>Goldagtin (Vildagliptin 50mg)</v>
+      </c>
+      <c r="B327" s="1">
+        <v>577</v>
+      </c>
+      <c r="C327" s="1">
+        <v>4950660</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B328" s="1">
+        <v>390</v>
+      </c>
+      <c r="C328" s="1">
+        <v>1569750</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B329" s="1">
+        <v>240</v>
+      </c>
+      <c r="C329" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B330" s="1">
+        <v>240</v>
+      </c>
+      <c r="C330" s="1">
+        <v>966000</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B331" s="1">
+        <v>200</v>
+      </c>
+      <c r="C331" s="1">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B332" s="1">
+        <v>1910</v>
+      </c>
+      <c r="C332" s="1">
+        <v>7687750</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B333" s="1">
+        <v>30</v>
+      </c>
+      <c r="C333" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B334" s="1">
+        <v>120</v>
+      </c>
+      <c r="C334" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B335" s="1">
+        <v>180</v>
+      </c>
+      <c r="C335" s="1">
+        <v>724500</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="str">
+        <v>Gujujnam (Piracetam 800mg)</v>
+      </c>
+      <c r="B336" s="1">
+        <v>60</v>
+      </c>
+      <c r="C336" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B337" s="1">
+        <v>90</v>
+      </c>
+      <c r="C337" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B338" s="1">
+        <v>90</v>
+      </c>
+      <c r="C338" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B339" s="1">
+        <v>60</v>
+      </c>
+      <c r="C339" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B340" s="1">
+        <v>360</v>
+      </c>
+      <c r="C340" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B341" s="1">
+        <v>30</v>
+      </c>
+      <c r="C341" s="1">
+        <v>82800</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B342" s="1">
+        <v>340</v>
+      </c>
+      <c r="C342" s="1">
+        <v>938400</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="str">
+        <v>Hancetax (Mecobalamin 500mcg)</v>
+      </c>
+      <c r="B343" s="1">
+        <v>60</v>
+      </c>
+      <c r="C343" s="1">
+        <v>165600</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B344" s="1">
+        <v>15</v>
+      </c>
+      <c r="C344" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B345" s="1">
+        <v>90</v>
+      </c>
+      <c r="C345" s="1">
+        <v>310500</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B346" s="1">
+        <v>75</v>
+      </c>
+      <c r="C346" s="1">
+        <v>258750</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B347" s="1">
+        <v>30</v>
+      </c>
+      <c r="C347" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B348" s="1">
+        <v>15</v>
+      </c>
+      <c r="C348" s="1">
+        <v>51750</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B349" s="1">
+        <v>225</v>
+      </c>
+      <c r="C349" s="1">
+        <v>776250</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="str">
+        <v>Hemfibrat (Fenofibrat 300mg)</v>
+      </c>
+      <c r="B350" s="1">
+        <v>30</v>
+      </c>
+      <c r="C350" s="1">
+        <v>103500</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B351" s="1">
+        <v>30</v>
+      </c>
+      <c r="C351" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B352" s="1">
+        <v>75</v>
+      </c>
+      <c r="C352" s="1">
+        <v>185250</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B353" s="1">
+        <v>30</v>
+      </c>
+      <c r="C353" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B354" s="1">
+        <v>30</v>
+      </c>
+      <c r="C354" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B355" s="1">
+        <v>273</v>
+      </c>
+      <c r="C355" s="1">
+        <v>674310</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="str">
+        <v>Herbesser 60mg (Diltiazem)</v>
+      </c>
+      <c r="B356" s="1">
+        <v>30</v>
+      </c>
+      <c r="C356" s="1">
+        <v>74100</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B357" s="1">
+        <v>90</v>
+      </c>
+      <c r="C357" s="1">
+        <v>524700</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B358" s="1">
+        <v>55</v>
+      </c>
+      <c r="C358" s="1">
+        <v>320650</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B359" s="1">
+        <v>150</v>
+      </c>
+      <c r="C359" s="1">
+        <v>874500</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B360" s="1">
+        <v>150</v>
+      </c>
+      <c r="C360" s="1">
+        <v>874500</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B361" s="1">
+        <v>30</v>
+      </c>
+      <c r="C361" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B362" s="1">
+        <v>75</v>
+      </c>
+      <c r="C362" s="1">
+        <v>437250</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B363" s="1">
+        <v>30</v>
+      </c>
+      <c r="C363" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="str">
+        <v>Hoanidol (Alfacalcidol 0.5mg)</v>
+      </c>
+      <c r="B364" s="1">
+        <v>50</v>
+      </c>
+      <c r="C364" s="1">
+        <v>291500</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B365" s="1">
+        <v>90</v>
+      </c>
+      <c r="C365" s="1">
+        <v>1584000</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B366" s="1">
+        <v>60</v>
+      </c>
+      <c r="C366" s="1">
+        <v>1056000</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="str">
+        <v>Iba-mentin 1000/62.5mg (Amoxicilin, clavulanic)</v>
+      </c>
+      <c r="B367" s="1">
+        <v>30</v>
+      </c>
+      <c r="C367" s="1">
+        <v>528000</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B368" s="1">
+        <v>120</v>
+      </c>
+      <c r="C368" s="1">
+        <v>1404000</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B369" s="1">
+        <v>60</v>
+      </c>
+      <c r="C369" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B370" s="1">
+        <v>60</v>
+      </c>
+      <c r="C370" s="1">
+        <v>702000</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="str">
+        <v>Janumet (Sitagliptin 50mg+metformin 850mg)</v>
+      </c>
+      <c r="B371" s="1">
+        <v>35</v>
+      </c>
+      <c r="C371" s="1">
+        <v>409500</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B372" s="1">
+        <v>40</v>
+      </c>
+      <c r="C372" s="1">
+        <v>105800</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B373" s="1">
+        <v>60</v>
+      </c>
+      <c r="C373" s="1">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B374" s="1">
+        <v>120</v>
+      </c>
+      <c r="C374" s="1">
+        <v>317400</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="str">
+        <v>Kaleorid (Potassium 600mg)</v>
+      </c>
+      <c r="B375" s="1">
+        <v>40</v>
+      </c>
+      <c r="C375" s="1">
+        <v>105800</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B376" s="1">
+        <v>120</v>
+      </c>
+      <c r="C376" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B377" s="1">
+        <v>90</v>
+      </c>
+      <c r="C377" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B378" s="1">
+        <v>240</v>
+      </c>
+      <c r="C378" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B379" s="1">
+        <v>120</v>
+      </c>
+      <c r="C379" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B380" s="1">
+        <v>120</v>
+      </c>
+      <c r="C380" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B381" s="1">
+        <v>1680</v>
+      </c>
+      <c r="C381" s="1">
+        <v>24024000</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B382" s="1">
+        <v>240</v>
+      </c>
+      <c r="C382" s="1">
+        <v>3432000</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="str">
+        <v>Ketovital</v>
+      </c>
+      <c r="B383" s="1">
+        <v>360</v>
+      </c>
+      <c r="C383" s="1">
+        <v>5148000</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="str">
+        <v xml:space="preserve">Khẩu trang </v>
+      </c>
+      <c r="B384" s="1">
+        <v>3</v>
+      </c>
+      <c r="C384" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B385" s="1">
+        <v>580</v>
+      </c>
+      <c r="C385" s="1">
+        <v>3268300</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="str">
+        <v>Lactomin Plus (Probiotics)</v>
+      </c>
+      <c r="B386" s="1">
+        <v>60</v>
+      </c>
+      <c r="C386" s="1">
+        <v>338100</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="str">
+        <v>Lantus Solostar 100IU/ml</v>
+      </c>
+      <c r="B387" s="1">
+        <v>2</v>
+      </c>
+      <c r="C387" s="1">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B388" s="1">
+        <v>120</v>
+      </c>
+      <c r="C388" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B389" s="1">
+        <v>180</v>
+      </c>
+      <c r="C389" s="1">
+        <v>1386000</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="str">
+        <v>Legalon (Silymarin 140mg)</v>
+      </c>
+      <c r="B390" s="1">
+        <v>60</v>
+      </c>
+      <c r="C390" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B391" s="1">
+        <v>30</v>
+      </c>
+      <c r="C391" s="1">
+        <v>207900</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B392" s="1">
+        <v>70</v>
+      </c>
+      <c r="C392" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B393" s="1">
+        <v>187</v>
+      </c>
+      <c r="C393" s="1">
+        <v>1295910</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B394" s="1">
+        <v>45</v>
+      </c>
+      <c r="C394" s="1">
+        <v>311850</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="str">
+        <v>Lertazin (Levocetirizine 5mg)</v>
+      </c>
+      <c r="B395" s="1">
+        <v>60</v>
+      </c>
+      <c r="C395" s="1">
+        <v>415800</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="str">
+        <v>Levothyrox 50mcg (Levothyroxine)</v>
+      </c>
+      <c r="B396" s="1">
+        <v>60</v>
+      </c>
+      <c r="C396" s="1">
+        <v>69300</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B397" s="1">
+        <v>20</v>
+      </c>
+      <c r="C397" s="1">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B398" s="1">
+        <v>180</v>
+      </c>
+      <c r="C398" s="1">
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B399" s="1">
+        <v>120</v>
+      </c>
+      <c r="C399" s="1">
+        <v>690000</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B400" s="1">
+        <v>920</v>
+      </c>
+      <c r="C400" s="1">
+        <v>5290000</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B401" s="1">
+        <v>60</v>
+      </c>
+      <c r="C401" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B402" s="1">
+        <v>60</v>
+      </c>
+      <c r="C402" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="str">
+        <v>Liveritat (L-Ornithine L-Aspartate 500mg)</v>
+      </c>
+      <c r="B403" s="1">
+        <v>60</v>
+      </c>
+      <c r="C403" s="1">
+        <v>345000</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B404" s="1">
+        <v>118</v>
+      </c>
+      <c r="C404" s="1">
+        <v>2206600</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B405" s="1">
+        <v>122</v>
+      </c>
+      <c r="C405" s="1">
+        <v>2281400</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B406" s="1">
+        <v>70</v>
+      </c>
+      <c r="C406" s="1">
+        <v>1309000</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B407" s="1">
+        <v>84</v>
+      </c>
+      <c r="C407" s="1">
+        <v>1570800</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B408" s="1">
+        <v>50</v>
+      </c>
+      <c r="C408" s="1">
+        <v>935000</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B409" s="1">
+        <v>84</v>
+      </c>
+      <c r="C409" s="1">
+        <v>1570800</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B410" s="1">
+        <v>779</v>
+      </c>
+      <c r="C410" s="1">
+        <v>14567300</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B411" s="1">
+        <v>20</v>
+      </c>
+      <c r="C411" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B412" s="1">
+        <v>76</v>
+      </c>
+      <c r="C412" s="1">
+        <v>1421200</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="str">
+        <v>Locinvid (Levofloxacin 500mg)</v>
+      </c>
+      <c r="B413" s="1">
+        <v>61</v>
+      </c>
+      <c r="C413" s="1">
+        <v>1140700</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B414" s="1">
+        <v>105</v>
+      </c>
+      <c r="C414" s="1">
+        <v>612150</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B415" s="1">
+        <v>30</v>
+      </c>
+      <c r="C415" s="1">
+        <v>174900</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B416" s="1">
+        <v>375</v>
+      </c>
+      <c r="C416" s="1">
+        <v>2186250</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B417" s="1">
+        <v>60</v>
+      </c>
+      <c r="C417" s="1">
+        <v>349800</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="str">
+        <v>Losatec H (Losartan 50mg, hydrochlorothiazide 12.5mg0</v>
+      </c>
+      <c r="B418" s="1">
+        <v>75</v>
+      </c>
+      <c r="C418" s="1">
+        <v>437250</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B419" s="1">
+        <v>40</v>
+      </c>
+      <c r="C419" s="1">
+        <v>646800</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B420" s="1">
+        <v>20</v>
+      </c>
+      <c r="C420" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B421" s="1">
+        <v>140</v>
+      </c>
+      <c r="C421" s="1">
+        <v>2263800</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B422" s="1">
+        <v>30</v>
+      </c>
+      <c r="C422" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B423" s="1">
+        <v>30</v>
+      </c>
+      <c r="C423" s="1">
+        <v>485100</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B424" s="1">
+        <v>14</v>
+      </c>
+      <c r="C424" s="1">
+        <v>226380</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="str">
+        <v>Lucass 200 (Cefpodoxime)</v>
+      </c>
+      <c r="B425" s="1">
+        <v>20</v>
+      </c>
+      <c r="C425" s="1">
+        <v>323400</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B426" s="1">
+        <v>30</v>
+      </c>
+      <c r="C426" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B427" s="1">
+        <v>225</v>
+      </c>
+      <c r="C427" s="1">
+        <v>3465000</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B428" s="1">
+        <v>30</v>
+      </c>
+      <c r="C428" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B429" s="1">
+        <v>60</v>
+      </c>
+      <c r="C429" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="str">
+        <v>Maxezole 40 (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B430" s="1">
+        <v>30</v>
+      </c>
+      <c r="C430" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="str">
+        <v>Medi-Levosulpirid (Levosulpiride 25mg)</v>
+      </c>
+      <c r="B431" s="1">
+        <v>80</v>
+      </c>
+      <c r="C431" s="1">
+        <v>239200</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="str">
+        <v>Medi-Neuro Ultra (B1 250mg, B6 250mg, B12 100mcg)</v>
+      </c>
+      <c r="B432" s="1">
+        <v>60</v>
+      </c>
+      <c r="C432" s="1">
+        <v>289800</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="str">
+        <v>Metadroxyl (Metadoxine 500mg)</v>
+      </c>
+      <c r="B433" s="1">
+        <v>240</v>
+      </c>
+      <c r="C433" s="1">
+        <v>1716000</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B434" s="1">
+        <v>90</v>
+      </c>
+      <c r="C434" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B435" s="1">
+        <v>30</v>
+      </c>
+      <c r="C435" s="1">
+        <v>379500</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B436" s="1">
+        <v>60</v>
+      </c>
+      <c r="C436" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B437" s="1">
+        <v>120</v>
+      </c>
+      <c r="C437" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B438" s="1">
+        <v>700</v>
+      </c>
+      <c r="C438" s="1">
+        <v>8855000</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B439" s="1">
+        <v>180</v>
+      </c>
+      <c r="C439" s="1">
+        <v>2277000</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B440" s="1">
+        <v>60</v>
+      </c>
+      <c r="C440" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="str">
+        <v>Meyerursolic (Ursodeoxycholic 300mg)</v>
+      </c>
+      <c r="B441" s="1">
+        <v>120</v>
+      </c>
+      <c r="C441" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B442" s="1">
+        <v>2</v>
+      </c>
+      <c r="C442" s="1">
+        <v>299600</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B443" s="1">
+        <v>49</v>
+      </c>
+      <c r="C443" s="1">
+        <v>7340200</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="str">
+        <v>Mixtard 30 Flexpen 100IU/ml</v>
+      </c>
+      <c r="B444" s="1">
+        <v>4</v>
+      </c>
+      <c r="C444" s="1">
+        <v>599200</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B445" s="1">
+        <v>120</v>
+      </c>
+      <c r="C445" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B446" s="1">
+        <v>30</v>
+      </c>
+      <c r="C446" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B447" s="1">
+        <v>120</v>
+      </c>
+      <c r="C447" s="1">
+        <v>924000</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B448" s="1">
+        <v>40</v>
+      </c>
+      <c r="C448" s="1">
+        <v>308000</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B449" s="1">
+        <v>675</v>
+      </c>
+      <c r="C449" s="1">
+        <v>5197500</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B450" s="1">
+        <v>30</v>
+      </c>
+      <c r="C450" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B451" s="1">
+        <v>60</v>
+      </c>
+      <c r="C451" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B452" s="1">
+        <v>60</v>
+      </c>
+      <c r="C452" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="str">
+        <v>Montelair (Montelukast 10mg)</v>
+      </c>
+      <c r="B453" s="1">
+        <v>30</v>
+      </c>
+      <c r="C453" s="1">
+        <v>231000</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B454" s="1">
+        <v>375</v>
+      </c>
+      <c r="C454" s="1">
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B455" s="1">
+        <v>330</v>
+      </c>
+      <c r="C455" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B456" s="1">
+        <v>240</v>
+      </c>
+      <c r="C456" s="1">
+        <v>662400</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B457" s="1">
+        <v>540</v>
+      </c>
+      <c r="C457" s="1">
+        <v>1490400</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B458" s="1">
+        <v>90</v>
+      </c>
+      <c r="C458" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B459" s="1">
+        <v>3558</v>
+      </c>
+      <c r="C459" s="1">
+        <v>9820080</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B460" s="1">
+        <v>180</v>
+      </c>
+      <c r="C460" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B461" s="1">
+        <v>210</v>
+      </c>
+      <c r="C461" s="1">
+        <v>579600</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B462" s="1">
+        <v>180</v>
+      </c>
+      <c r="C462" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="str">
+        <v>Mosad MT (Mosapride 5mg)</v>
+      </c>
+      <c r="B463" s="1">
+        <v>320</v>
+      </c>
+      <c r="C463" s="1">
+        <v>883200</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="str">
+        <v>Muscat (Mosapride citrate 5.0mg)</v>
+      </c>
+      <c r="B464" s="1">
+        <v>60</v>
+      </c>
+      <c r="C464" s="1">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B465" s="1">
+        <v>135</v>
+      </c>
+      <c r="C465" s="1">
+        <v>287550</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B466" s="1">
+        <v>100</v>
+      </c>
+      <c r="C466" s="1">
+        <v>213000</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B467" s="1">
+        <v>120</v>
+      </c>
+      <c r="C467" s="1">
+        <v>255600</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B468" s="1">
+        <v>180</v>
+      </c>
+      <c r="C468" s="1">
+        <v>383400</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B469" s="1">
+        <v>60</v>
+      </c>
+      <c r="C469" s="1">
+        <v>127800</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B470" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C470" s="1">
+        <v>3408000</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B471" s="1">
+        <v>90</v>
+      </c>
+      <c r="C471" s="1">
+        <v>191700</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B472" s="1">
+        <v>200</v>
+      </c>
+      <c r="C472" s="1">
+        <v>426000</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B473" s="1">
+        <v>60</v>
+      </c>
+      <c r="C473" s="1">
+        <v>127800</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="str">
+        <v>Myomethol (Methocarbamol 500mg)</v>
+      </c>
+      <c r="B474" s="1">
+        <v>130</v>
+      </c>
+      <c r="C474" s="1">
+        <v>276900</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="str">
+        <v>Nevol (Nebivolol 2.5mg)</v>
+      </c>
+      <c r="B475" s="1">
+        <v>30</v>
+      </c>
+      <c r="C475" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="str">
+        <v>Newbutin (Trimebutine 300mg)</v>
+      </c>
+      <c r="B476" s="1">
+        <v>300</v>
+      </c>
+      <c r="C476" s="1">
+        <v>2013000</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="str">
+        <v>Nexium (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B477" s="1">
+        <v>15</v>
+      </c>
+      <c r="C477" s="1">
+        <v>407550</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="str">
+        <v>Nikoramyl (Nicorandil 5mg)</v>
+      </c>
+      <c r="B478" s="1">
+        <v>60</v>
+      </c>
+      <c r="C478" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B479" s="1">
+        <v>210</v>
+      </c>
+      <c r="C479" s="1">
+        <v>2656500</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B480" s="1">
+        <v>60</v>
+      </c>
+      <c r="C480" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B481" s="1">
+        <v>120</v>
+      </c>
+      <c r="C481" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B482" s="1">
+        <v>90</v>
+      </c>
+      <c r="C482" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B483" s="1">
+        <v>1390</v>
+      </c>
+      <c r="C483" s="1">
+        <v>17583500</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B484" s="1">
+        <v>90</v>
+      </c>
+      <c r="C484" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B485" s="1">
+        <v>60</v>
+      </c>
+      <c r="C485" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B486" s="1">
+        <v>150</v>
+      </c>
+      <c r="C486" s="1">
+        <v>1897500</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B487" s="1">
+        <v>120</v>
+      </c>
+      <c r="C487" s="1">
+        <v>1518000</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="str">
+        <v>Nolpaza (Pantoprazole 40mg)</v>
+      </c>
+      <c r="B488" s="1">
+        <v>220</v>
+      </c>
+      <c r="C488" s="1">
+        <v>2783000</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="str">
+        <v>Noraquick (Gabapentin 300mg)</v>
+      </c>
+      <c r="B489" s="1">
+        <v>90</v>
+      </c>
+      <c r="C489" s="1">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B490" s="1">
+        <v>105</v>
+      </c>
+      <c r="C490" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B491" s="1">
+        <v>90</v>
+      </c>
+      <c r="C491" s="1">
+        <v>414000</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B492" s="1">
+        <v>60</v>
+      </c>
+      <c r="C492" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B493" s="1">
+        <v>555</v>
+      </c>
+      <c r="C493" s="1">
+        <v>2553000</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="str">
+        <v>Normodipine (Amlodipine 5mg)</v>
+      </c>
+      <c r="B494" s="1">
+        <v>60</v>
+      </c>
+      <c r="C494" s="1">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B495" s="1">
+        <v>200</v>
+      </c>
+      <c r="C495" s="1">
+        <v>494000</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="str">
+        <v>Novofine 31g X 6mm B/100 (Kim)</v>
+      </c>
+      <c r="B496" s="1">
+        <v>100</v>
+      </c>
+      <c r="C496" s="1">
+        <v>247000</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="str">
+        <v>Nykob (Olanzapin 10mg)</v>
+      </c>
+      <c r="B497" s="1">
+        <v>10</v>
+      </c>
+      <c r="C497" s="1">
+        <v>104500</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B498" s="1">
+        <v>60</v>
+      </c>
+      <c r="C498" s="1">
+        <v>456600</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="str">
+        <v>Onsmix Suspension (Oxethazaine, aluminium, magnesium)</v>
+      </c>
+      <c r="B499" s="1">
+        <v>60</v>
+      </c>
+      <c r="C499" s="1">
+        <v>456600</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B500" s="1">
+        <v>240</v>
+      </c>
+      <c r="C500" s="1">
+        <v>2019600</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B501" s="1">
+        <v>360</v>
+      </c>
+      <c r="C501" s="1">
+        <v>3029400</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B502" s="1">
+        <v>180</v>
+      </c>
+      <c r="C502" s="1">
+        <v>1514700</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B503" s="1">
+        <v>290</v>
+      </c>
+      <c r="C503" s="1">
+        <v>2440350</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B504" s="1">
+        <v>120</v>
+      </c>
+      <c r="C504" s="1">
+        <v>1009800</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B505" s="1">
+        <v>3260</v>
+      </c>
+      <c r="C505" s="1">
+        <v>27432900</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B506" s="1">
+        <v>180</v>
+      </c>
+      <c r="C506" s="1">
+        <v>1514700</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B507" s="1">
+        <v>340</v>
+      </c>
+      <c r="C507" s="1">
+        <v>2861100</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B508" s="1">
+        <v>300</v>
+      </c>
+      <c r="C508" s="1">
+        <v>2524500</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="str">
+        <v>Opecerin (Diacerein 50mg)</v>
+      </c>
+      <c r="B509" s="1">
+        <v>180</v>
+      </c>
+      <c r="C509" s="1">
+        <v>1514700</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="str">
+        <v>Optipan (Diacerhein 50mg)</v>
+      </c>
+      <c r="B510" s="1">
+        <v>60</v>
+      </c>
+      <c r="C510" s="1">
+        <v>653400</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B511" s="1">
+        <v>30</v>
+      </c>
+      <c r="C511" s="1">
+        <v>96600</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B512" s="1">
+        <v>250</v>
+      </c>
+      <c r="C512" s="1">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B513" s="1">
+        <v>60</v>
+      </c>
+      <c r="C513" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="str">
+        <v>Oxabiti (Mecobalamine 500mg)</v>
+      </c>
+      <c r="B514" s="1">
+        <v>60</v>
+      </c>
+      <c r="C514" s="1">
+        <v>193200</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B515" s="1">
+        <v>60</v>
+      </c>
+      <c r="C515" s="1">
+        <v>248400</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B516" s="1">
+        <v>120</v>
+      </c>
+      <c r="C516" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B517" s="1">
+        <v>120</v>
+      </c>
+      <c r="C517" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B518" s="1">
+        <v>1252</v>
+      </c>
+      <c r="C518" s="1">
+        <v>5183280</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B519" s="1">
+        <v>120</v>
+      </c>
+      <c r="C519" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B520" s="1">
+        <v>240</v>
+      </c>
+      <c r="C520" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="str">
+        <v>Pharcotinex</v>
+      </c>
+      <c r="B521" s="1">
+        <v>120</v>
+      </c>
+      <c r="C521" s="1">
+        <v>496800</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B522" s="1">
+        <v>60</v>
+      </c>
+      <c r="C522" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B523" s="1">
+        <v>30</v>
+      </c>
+      <c r="C523" s="1">
+        <v>120750</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B524" s="1">
+        <v>314</v>
+      </c>
+      <c r="C524" s="1">
+        <v>1263850</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B525" s="1">
+        <v>60</v>
+      </c>
+      <c r="C525" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="str">
+        <v>Philiver (Carduus, vitamin..)</v>
+      </c>
+      <c r="B526" s="1">
+        <v>60</v>
+      </c>
+      <c r="C526" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="str">
+        <v>Piascledin 300mg (Avocado,soybean unsaponifiable)</v>
+      </c>
+      <c r="B527" s="1">
+        <v>90</v>
+      </c>
+      <c r="C527" s="1">
+        <v>1188000</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B528" s="1">
+        <v>30</v>
+      </c>
+      <c r="C528" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B529" s="1">
+        <v>30</v>
+      </c>
+      <c r="C529" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="str">
+        <v>Picencal (Calcium &amp; Vitamin D)</v>
+      </c>
+      <c r="B530" s="1">
+        <v>375</v>
+      </c>
+      <c r="C530" s="1">
+        <v>1250625</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B531" s="1">
+        <v>55</v>
+      </c>
+      <c r="C531" s="1">
+        <v>816750</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B532" s="1">
+        <v>60</v>
+      </c>
+      <c r="C532" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B533" s="1">
+        <v>30</v>
+      </c>
+      <c r="C533" s="1">
+        <v>445500</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B534" s="1">
+        <v>30</v>
+      </c>
+      <c r="C534" s="1">
+        <v>445500</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B535" s="1">
+        <v>45</v>
+      </c>
+      <c r="C535" s="1">
+        <v>668250</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B536" s="1">
+        <v>610</v>
+      </c>
+      <c r="C536" s="1">
+        <v>9058500</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B537" s="1">
+        <v>45</v>
+      </c>
+      <c r="C537" s="1">
+        <v>668250</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B538" s="1">
+        <v>220</v>
+      </c>
+      <c r="C538" s="1">
+        <v>3267000</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B539" s="1">
+        <v>45</v>
+      </c>
+      <c r="C539" s="1">
+        <v>668250</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="str">
+        <v>Prepentin (Pregabalin 75mg)</v>
+      </c>
+      <c r="B540" s="1">
+        <v>60</v>
+      </c>
+      <c r="C540" s="1">
+        <v>891000</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B541" s="1">
+        <v>120</v>
+      </c>
+      <c r="C541" s="1">
+        <v>469200</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B542" s="1">
+        <v>104</v>
+      </c>
+      <c r="C542" s="1">
+        <v>406640</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B543" s="1">
+        <v>30</v>
+      </c>
+      <c r="C543" s="1">
+        <v>117300</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="str">
+        <v>Proginale (L-Cystine 500mg)</v>
+      </c>
+      <c r="B544" s="1">
+        <v>60</v>
+      </c>
+      <c r="C544" s="1">
+        <v>234600</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B545" s="1">
+        <v>30</v>
+      </c>
+      <c r="C545" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B546" s="1">
+        <v>30</v>
+      </c>
+      <c r="C546" s="1">
+        <v>544500</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B547" s="1">
+        <v>210</v>
+      </c>
+      <c r="C547" s="1">
+        <v>3811500</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="str">
+        <v>Prorid (Finasteride 5 mg)</v>
+      </c>
+      <c r="B548" s="1">
+        <v>15</v>
+      </c>
+      <c r="C548" s="1">
+        <v>272250</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B549" s="1">
+        <v>130</v>
+      </c>
+      <c r="C549" s="1">
+        <v>1140100</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B550" s="1">
+        <v>105</v>
+      </c>
+      <c r="C550" s="1">
+        <v>920850</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B551" s="1">
+        <v>90</v>
+      </c>
+      <c r="C551" s="1">
+        <v>789300</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B552" s="1">
+        <v>140</v>
+      </c>
+      <c r="C552" s="1">
+        <v>1227800</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B553" s="1">
+        <v>130</v>
+      </c>
+      <c r="C553" s="1">
+        <v>1140100</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B554" s="1">
+        <v>1575</v>
+      </c>
+      <c r="C554" s="1">
+        <v>13812750</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B555" s="1">
+        <v>80</v>
+      </c>
+      <c r="C555" s="1">
+        <v>701600</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B556" s="1">
+        <v>345</v>
+      </c>
+      <c r="C556" s="1">
+        <v>3025650</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B557" s="1">
+        <v>125</v>
+      </c>
+      <c r="C557" s="1">
+        <v>1096250</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="str">
+        <v>Rabesime (Rabeprazole 20mg)</v>
+      </c>
+      <c r="B558" s="1">
+        <v>290</v>
+      </c>
+      <c r="C558" s="1">
+        <v>2543300</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="str">
+        <v>Reduze (Glucosamine, chondroitin, zingiber, phellodendron amurense)</v>
+      </c>
+      <c r="B559" s="1">
+        <v>60</v>
+      </c>
+      <c r="C559" s="1">
+        <v>462000</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="str">
+        <v>Refix (Rifaximin 550mg)</v>
+      </c>
+      <c r="B560" s="1">
+        <v>28</v>
+      </c>
+      <c r="C560" s="1">
+        <v>708400</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="str">
+        <v>Refix (Rifaximin 550mg)</v>
+      </c>
+      <c r="B561" s="1">
+        <v>88</v>
+      </c>
+      <c r="C561" s="1">
+        <v>2226400</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="str">
+        <v>Refix (Rifaximin 550mg)</v>
+      </c>
+      <c r="B562" s="1">
+        <v>30</v>
+      </c>
+      <c r="C562" s="1">
+        <v>759000</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="str">
+        <v>S-cort (Rabamipide 100mg)</v>
+      </c>
+      <c r="B563" s="1">
+        <v>120</v>
+      </c>
+      <c r="C563" s="1">
+        <v>552000</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B564" s="1">
+        <v>30</v>
+      </c>
+      <c r="C564" s="1">
+        <v>280500</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="str">
+        <v>Sedanxio (Lạc tiên)</v>
+      </c>
+      <c r="B565" s="1">
+        <v>15</v>
+      </c>
+      <c r="C565" s="1">
+        <v>140250</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B566" s="1">
+        <v>2</v>
+      </c>
+      <c r="C566" s="1">
+        <v>718800</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="str">
+        <v>Seretide Accuhaler 50/500 mcg (Salmetrol, fluticasone propionate)</v>
+      </c>
+      <c r="B567" s="1">
+        <v>1</v>
+      </c>
+      <c r="C567" s="1">
+        <v>359400</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B568" s="1">
+        <v>60</v>
+      </c>
+      <c r="C568" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B569" s="1">
+        <v>35</v>
+      </c>
+      <c r="C569" s="1">
+        <v>577500</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B570" s="1">
+        <v>215</v>
+      </c>
+      <c r="C570" s="1">
+        <v>3547500</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B571" s="1">
+        <v>60</v>
+      </c>
+      <c r="C571" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B572" s="1">
+        <v>60</v>
+      </c>
+      <c r="C572" s="1">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B573" s="1">
+        <v>30</v>
+      </c>
+      <c r="C573" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="str">
+        <v>Sopezid (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B574" s="1">
+        <v>30</v>
+      </c>
+      <c r="C574" s="1">
+        <v>495000</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B575" s="1">
+        <v>590</v>
+      </c>
+      <c r="C575" s="1">
+        <v>8437000</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B576" s="1">
+        <v>530</v>
+      </c>
+      <c r="C576" s="1">
+        <v>7579000</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B577" s="1">
+        <v>620</v>
+      </c>
+      <c r="C577" s="1">
+        <v>8866000</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B578" s="1">
+        <v>365</v>
+      </c>
+      <c r="C578" s="1">
+        <v>5219500</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B579" s="1">
+        <v>4518</v>
+      </c>
+      <c r="C579" s="1">
+        <v>64607400</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B580" s="1">
+        <v>260</v>
+      </c>
+      <c r="C580" s="1">
+        <v>3718000</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B581" s="1">
+        <v>445</v>
+      </c>
+      <c r="C581" s="1">
+        <v>6363500</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B582" s="1">
+        <v>305</v>
+      </c>
+      <c r="C582" s="1">
+        <v>4361500</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B583" s="1">
+        <v>600</v>
+      </c>
+      <c r="C583" s="1">
+        <v>8580000</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="str">
+        <v>Sotig (Esomeprazole 40mg)</v>
+      </c>
+      <c r="B584" s="1">
+        <v>200</v>
+      </c>
+      <c r="C584" s="1">
+        <v>2860000</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B585" s="1">
+        <v>30</v>
+      </c>
+      <c r="C585" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B586" s="1">
+        <v>120</v>
+      </c>
+      <c r="C586" s="1">
+        <v>400200</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B587" s="1">
+        <v>20</v>
+      </c>
+      <c r="C587" s="1">
+        <v>66700</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="str">
+        <v>Spiromide (Spironolactone, Furosemide)</v>
+      </c>
+      <c r="B588" s="1">
+        <v>30</v>
+      </c>
+      <c r="C588" s="1">
+        <v>100050</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="str">
+        <v>Spulit (Itraconazol 100mg)</v>
+      </c>
+      <c r="B589" s="1">
+        <v>5</v>
+      </c>
+      <c r="C589" s="1">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="str">
+        <v>Stadpizide (Sulpirid 50mg)</v>
+      </c>
+      <c r="B590" s="1">
+        <v>15</v>
+      </c>
+      <c r="C590" s="1">
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B591" s="1">
+        <v>18</v>
+      </c>
+      <c r="C591" s="1">
+        <v>1692000</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B592" s="1">
+        <v>6</v>
+      </c>
+      <c r="C592" s="1">
+        <v>564000</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B593" s="1">
+        <v>4</v>
+      </c>
+      <c r="C593" s="1">
+        <v>376000</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B594" s="1">
+        <v>56</v>
+      </c>
+      <c r="C594" s="1">
+        <v>5264000</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B595" s="1">
+        <v>10</v>
+      </c>
+      <c r="C595" s="1">
+        <v>940000</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B596" s="1">
+        <v>2</v>
+      </c>
+      <c r="C596" s="1">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="str">
+        <v>Stromectin (Ivermectin 6mg)</v>
+      </c>
+      <c r="B597" s="1">
+        <v>2</v>
+      </c>
+      <c r="C597" s="1">
+        <v>188000</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B598" s="1">
+        <v>12</v>
+      </c>
+      <c r="C598" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B599" s="1">
+        <v>2</v>
+      </c>
+      <c r="C599" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B600" s="1">
+        <v>4</v>
+      </c>
+      <c r="C600" s="1">
+        <v>440000</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B601" s="1">
+        <v>12</v>
+      </c>
+      <c r="C601" s="1">
+        <v>1320000</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B602" s="1">
+        <v>2</v>
+      </c>
+      <c r="C602" s="1">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B603" s="1">
+        <v>57</v>
+      </c>
+      <c r="C603" s="1">
+        <v>6270000</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B604" s="1">
+        <v>8</v>
+      </c>
+      <c r="C604" s="1">
+        <v>880000</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B605" s="1">
+        <v>10</v>
+      </c>
+      <c r="C605" s="1">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="str">
+        <v>Stroseca (Ivermectin 6mg)</v>
+      </c>
+      <c r="B606" s="1">
+        <v>6</v>
+      </c>
+      <c r="C606" s="1">
+        <v>660000</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B607" s="1">
+        <v>83</v>
+      </c>
+      <c r="C607" s="1">
+        <v>1259940</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B608" s="1">
+        <v>90</v>
+      </c>
+      <c r="C608" s="1">
+        <v>1366200</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B609" s="1">
+        <v>75</v>
+      </c>
+      <c r="C609" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B610" s="1">
+        <v>30</v>
+      </c>
+      <c r="C610" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B611" s="1">
+        <v>75</v>
+      </c>
+      <c r="C611" s="1">
+        <v>1138500</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B612" s="1">
+        <v>850</v>
+      </c>
+      <c r="C612" s="1">
+        <v>12903000</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B613" s="1">
+        <v>30</v>
+      </c>
+      <c r="C613" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B614" s="1">
+        <v>95</v>
+      </c>
+      <c r="C614" s="1">
+        <v>1442100</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B615" s="1">
+        <v>30</v>
+      </c>
+      <c r="C615" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="str">
+        <v>Sumakin 750mg (Amoxicillin 500mg, Sulbactam 250mg)</v>
+      </c>
+      <c r="B616" s="1">
+        <v>30</v>
+      </c>
+      <c r="C616" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B617" s="1">
+        <v>170</v>
+      </c>
+      <c r="C617" s="1">
+        <v>625600</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B618" s="1">
+        <v>50</v>
+      </c>
+      <c r="C618" s="1">
+        <v>184000</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B619" s="1">
+        <v>120</v>
+      </c>
+      <c r="C619" s="1">
+        <v>441600</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B620" s="1">
+        <v>60</v>
+      </c>
+      <c r="C620" s="1">
+        <v>220800</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B621" s="1">
+        <v>2066</v>
+      </c>
+      <c r="C621" s="1">
+        <v>7602880</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B622" s="1">
+        <v>80</v>
+      </c>
+      <c r="C622" s="1">
+        <v>294400</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B623" s="1">
+        <v>170</v>
+      </c>
+      <c r="C623" s="1">
+        <v>625600</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="str">
+        <v>Talmain (Talniflumate 370mg)</v>
+      </c>
+      <c r="B624" s="1">
+        <v>80</v>
+      </c>
+      <c r="C624" s="1">
+        <v>294400</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B625" s="1">
+        <v>60</v>
+      </c>
+      <c r="C625" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B626" s="1">
+        <v>550</v>
+      </c>
+      <c r="C626" s="1">
+        <v>2213750</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B627" s="1">
+        <v>120</v>
+      </c>
+      <c r="C627" s="1">
+        <v>483000</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="str">
+        <v>Targinos (Arginine 400mg)</v>
+      </c>
+      <c r="B628" s="1">
+        <v>60</v>
+      </c>
+      <c r="C628" s="1">
+        <v>241500</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B629" s="1">
+        <v>60</v>
+      </c>
+      <c r="C629" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B630" s="1">
+        <v>70</v>
+      </c>
+      <c r="C630" s="1">
+        <v>531300</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B631" s="1">
+        <v>195</v>
+      </c>
+      <c r="C631" s="1">
+        <v>1480050</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B632" s="1">
+        <v>165</v>
+      </c>
+      <c r="C632" s="1">
+        <v>1252350</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B633" s="1">
+        <v>120</v>
+      </c>
+      <c r="C633" s="1">
+        <v>910800</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B634" s="1">
+        <v>75</v>
+      </c>
+      <c r="C634" s="1">
+        <v>569250</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B635" s="1">
+        <v>2195</v>
+      </c>
+      <c r="C635" s="1">
+        <v>16660050</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B636" s="1">
+        <v>60</v>
+      </c>
+      <c r="C636" s="1">
+        <v>455400</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B637" s="1">
+        <v>280</v>
+      </c>
+      <c r="C637" s="1">
+        <v>2125200</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="str">
+        <v>Telod (Telmisartan 40mg)</v>
+      </c>
+      <c r="B638" s="1">
+        <v>240</v>
+      </c>
+      <c r="C638" s="1">
+        <v>1821600</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="str">
+        <v>Tetracyclin 500mg</v>
+      </c>
+      <c r="B639" s="1">
+        <v>80</v>
+      </c>
+      <c r="C639" s="1">
+        <v>78000</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="str">
+        <v>Tetracyclin 500mg</v>
+      </c>
+      <c r="B640" s="1">
+        <v>40</v>
+      </c>
+      <c r="C640" s="1">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B641" s="1">
+        <v>570</v>
+      </c>
+      <c r="C641" s="1">
+        <v>2359800</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B642" s="1">
+        <v>470</v>
+      </c>
+      <c r="C642" s="1">
+        <v>1945800</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B643" s="1">
+        <v>420</v>
+      </c>
+      <c r="C643" s="1">
+        <v>1738800</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B644" s="1">
+        <v>450</v>
+      </c>
+      <c r="C644" s="1">
+        <v>1863000</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B645" s="1">
+        <v>480</v>
+      </c>
+      <c r="C645" s="1">
+        <v>1987200</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B646" s="1">
+        <v>5044</v>
+      </c>
+      <c r="C646" s="1">
+        <v>20882160</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B647" s="1">
+        <v>300</v>
+      </c>
+      <c r="C647" s="1">
+        <v>1242000</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B648" s="1">
+        <v>690</v>
+      </c>
+      <c r="C648" s="1">
+        <v>2856600</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B649" s="1">
+        <v>240</v>
+      </c>
+      <c r="C649" s="1">
+        <v>993600</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="str">
+        <v>Timiroitin</v>
+      </c>
+      <c r="B650" s="1">
+        <v>520</v>
+      </c>
+      <c r="C650" s="1">
+        <v>2152800</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B651" s="1">
+        <v>30</v>
+      </c>
+      <c r="C651" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B652" s="1">
+        <v>105</v>
+      </c>
+      <c r="C652" s="1">
+        <v>900900</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B653" s="1">
+        <v>150</v>
+      </c>
+      <c r="C653" s="1">
+        <v>1287000</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B654" s="1">
+        <v>360</v>
+      </c>
+      <c r="C654" s="1">
+        <v>3088800</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B655" s="1">
+        <v>30</v>
+      </c>
+      <c r="C655" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B656" s="1">
+        <v>1175</v>
+      </c>
+      <c r="C656" s="1">
+        <v>10081500</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B657" s="1">
+        <v>60</v>
+      </c>
+      <c r="C657" s="1">
+        <v>514800</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B658" s="1">
+        <v>90</v>
+      </c>
+      <c r="C658" s="1">
+        <v>772200</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B659" s="1">
+        <v>30</v>
+      </c>
+      <c r="C659" s="1">
+        <v>257400</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="str">
+        <v>Toropi (Lercanidipine 10mg)</v>
+      </c>
+      <c r="B660" s="1">
+        <v>240</v>
+      </c>
+      <c r="C660" s="1">
+        <v>2059200</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="str">
+        <v>Trimebutine Gerda 200mg</v>
+      </c>
+      <c r="B661" s="1">
+        <v>60</v>
+      </c>
+      <c r="C661" s="1">
+        <v>524700</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B662" s="1">
+        <v>2760</v>
+      </c>
+      <c r="C662" s="1">
+        <v>5395800</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B663" s="1">
+        <v>1995</v>
+      </c>
+      <c r="C663" s="1">
+        <v>3900225</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B664" s="1">
+        <v>2175</v>
+      </c>
+      <c r="C664" s="1">
+        <v>4252125</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B665" s="1">
+        <v>2775</v>
+      </c>
+      <c r="C665" s="1">
+        <v>5425125</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B666" s="1">
+        <v>1717</v>
+      </c>
+      <c r="C666" s="1">
+        <v>3356735</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B667" s="1">
+        <v>25482</v>
+      </c>
+      <c r="C667" s="1">
+        <v>49817310</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B668" s="1">
+        <v>1345</v>
+      </c>
+      <c r="C668" s="1">
+        <v>2629475</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B669" s="1">
+        <v>2495</v>
+      </c>
+      <c r="C669" s="1">
+        <v>4877725</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B670" s="1">
+        <v>2595</v>
+      </c>
+      <c r="C670" s="1">
+        <v>5073225</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="str">
+        <v>Trisova (Trimetazidine 20mg)</v>
+      </c>
+      <c r="B671" s="1">
+        <v>1770</v>
+      </c>
+      <c r="C671" s="1">
+        <v>3460350</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B672" s="1">
+        <v>20</v>
+      </c>
+      <c r="C672" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B673" s="1">
+        <v>20</v>
+      </c>
+      <c r="C673" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B674" s="1">
+        <v>110</v>
+      </c>
+      <c r="C674" s="1">
+        <v>2057000</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B675" s="1">
+        <v>20</v>
+      </c>
+      <c r="C675" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B676" s="1">
+        <v>20</v>
+      </c>
+      <c r="C676" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="str">
+        <v>Vinaflam (Cefuroxime 500mg)</v>
+      </c>
+      <c r="B677" s="1">
+        <v>20</v>
+      </c>
+      <c r="C677" s="1">
+        <v>374000</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="str">
+        <v>Vocfor (Lornoxicam 4mg)</v>
+      </c>
+      <c r="B678" s="1">
+        <v>15</v>
+      </c>
+      <c r="C678" s="1">
+        <v>146190</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="str">
+        <v>Voltaren 1% Emulgel 20g</v>
+      </c>
+      <c r="B679" s="1">
+        <v>2</v>
+      </c>
+      <c r="C679" s="1">
+        <v>139000</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="str">
+        <v>Xatral XL(Alfuzosine 10mg)</v>
+      </c>
+      <c r="B680" s="1">
+        <v>30</v>
+      </c>
+      <c r="C680" s="1">
+        <v>529800</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="str">
+        <v>Xatral XL(Alfuzosine 10mg)</v>
+      </c>
+      <c r="B681" s="1">
+        <v>15</v>
+      </c>
+      <c r="C681" s="1">
+        <v>264900</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B682" s="1">
+        <v>1</v>
+      </c>
+      <c r="C682" s="1">
+        <v>12300</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="str">
+        <v>Zentel (albendazole)</v>
+      </c>
+      <c r="B683" s="1">
+        <v>3</v>
+      </c>
+      <c r="C683" s="1">
+        <v>36900</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B684" s="1">
+        <v>180</v>
+      </c>
+      <c r="C684" s="1">
+        <v>2098800</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B685" s="1">
+        <v>1340</v>
+      </c>
+      <c r="C685" s="1">
+        <v>15624400</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B686" s="1">
+        <v>140</v>
+      </c>
+      <c r="C686" s="1">
+        <v>1632400</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B687" s="1">
+        <v>120</v>
+      </c>
+      <c r="C687" s="1">
+        <v>1399200</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B688" s="1">
+        <v>120</v>
+      </c>
+      <c r="C688" s="1">
+        <v>1399200</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B689" s="1">
+        <v>60</v>
+      </c>
+      <c r="C689" s="1">
+        <v>699600</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="str">
+        <v>Zuiver (Ursodeoxycholic acid 300mg)</v>
+      </c>
+      <c r="B690" s="1">
+        <v>140</v>
+      </c>
+      <c r="C690" s="1">
+        <v>1632400</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="str">
         <v>Tổng cộng</v>
       </c>
-      <c r="B132" s="1">
-        <v>240964</v>
-      </c>
-      <c r="C132" s="1">
-        <v>NaN</v>
+      <c r="B691" s="1">
+        <v>214806</v>
+      </c>
+      <c r="C691" s="1">
+        <v>1357721685</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C132"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C691"/>
   </ignoredErrors>
 </worksheet>
 </file>